--- a/cypress/fixtures/expectedResults/Personal lines/HOC IA 11 20 22.xlsx
+++ b/cypress/fixtures/expectedResults/Personal lines/HOC IA 11 20 22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreis/WebstormProjects/rest-apiNew/cypress/fixtures/expectedResults/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreis/MyOwnProject/api-test-cypress/cypress/fixtures/expectedResults/Personal lines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C2AEBE-B69A-6647-B3AE-FD0309F7774D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CCA960-AFFD-9B40-A8DE-AE95459B9279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20800" xr2:uid="{992EAC74-168D-4556-9021-6B1FC9608133}"/>
+    <workbookView xWindow="-180" yWindow="-26960" windowWidth="35840" windowHeight="20800" xr2:uid="{992EAC74-168D-4556-9021-6B1FC9608133}"/>
   </bookViews>
   <sheets>
     <sheet name="Forms and Bulletins" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="363">
   <si>
     <t>CRITERIA</t>
   </si>
@@ -1209,6 +1209,9 @@
   </si>
   <si>
     <t>06 11</t>
+  </si>
+  <si>
+    <t>HO</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1393,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1678,7 +1681,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1689,7 +1692,7 @@
   <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1712,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">

--- a/cypress/fixtures/expectedResults/Personal lines/HOC IA 11 20 22.xlsx
+++ b/cypress/fixtures/expectedResults/Personal lines/HOC IA 11 20 22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreis/MyOwnProject/api-test-cypress/cypress/fixtures/expectedResults/Personal lines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CCA960-AFFD-9B40-A8DE-AE95459B9279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137CC801-EDCD-CA47-95F2-ABAAC7BD40DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-180" yWindow="-26960" windowWidth="35840" windowHeight="20800" xr2:uid="{992EAC74-168D-4556-9021-6B1FC9608133}"/>
   </bookViews>
@@ -1692,7 +1692,7 @@
   <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/cypress/fixtures/expectedResults/Personal lines/HOC IA 11 20 22.xlsx
+++ b/cypress/fixtures/expectedResults/Personal lines/HOC IA 11 20 22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreis/MyOwnProject/api-test-cypress/cypress/fixtures/expectedResults/Personal lines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137CC801-EDCD-CA47-95F2-ABAAC7BD40DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22744866-7963-D94E-9349-7D950FB9BBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="-26960" windowWidth="35840" windowHeight="20800" xr2:uid="{992EAC74-168D-4556-9021-6B1FC9608133}"/>
+    <workbookView xWindow="-4400" yWindow="-25520" windowWidth="35840" windowHeight="20800" xr2:uid="{992EAC74-168D-4556-9021-6B1FC9608133}"/>
   </bookViews>
   <sheets>
     <sheet name="Forms and Bulletins" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="377">
   <si>
     <t>CRITERIA</t>
   </si>
@@ -1212,6 +1212,48 @@
   </si>
   <si>
     <t>HO</t>
+  </si>
+  <si>
+    <t>PFM</t>
+  </si>
+  <si>
+    <t>FEL</t>
+  </si>
+  <si>
+    <t>Forms &amp; Endorsement List 06 24 11 IA</t>
+  </si>
+  <si>
+    <t>Forms &amp; Endorsement List 04 08 11 IA</t>
+  </si>
+  <si>
+    <t>Forms &amp; Endorsement List 07 02 10 IA</t>
+  </si>
+  <si>
+    <t>Forms &amp; Endorsement List 09 18 09 IA</t>
+  </si>
+  <si>
+    <t>Forms &amp; Endorsement List 12 19 08 IA</t>
+  </si>
+  <si>
+    <t>SUP</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>PRL</t>
+  </si>
+  <si>
+    <t>STP</t>
+  </si>
+  <si>
+    <t>REP</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>Forms</t>
   </si>
 </sst>
 </file>
@@ -1689,1833 +1731,3185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6089C9B-6C1F-41AA-9E90-19600F8F153D}">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A2:G165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F127" sqref="F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.1640625" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" customWidth="1"/>
-    <col min="3" max="3" width="33.5" customWidth="1"/>
-    <col min="4" max="4" width="34.1640625" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="60.1640625" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="34.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>44885</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="B5" s="4">
+        <v>44885</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F10" t="s">
+        <v>348</v>
+      </c>
+      <c r="G10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>363</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E11" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F11" t="s">
+        <v>348</v>
+      </c>
+      <c r="G11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>363</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E12" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F12" t="s">
+        <v>348</v>
+      </c>
+      <c r="G12" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>363</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E13" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F13" t="s">
+        <v>348</v>
+      </c>
+      <c r="G13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F14" t="s">
+        <v>348</v>
+      </c>
+      <c r="G14" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>363</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E15" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F15" t="s">
+        <v>348</v>
+      </c>
+      <c r="G15" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>363</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E16" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F16" t="s">
+        <v>348</v>
+      </c>
+      <c r="G16" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>363</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>361</v>
       </c>
-      <c r="D17" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E17" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F17" t="s">
+        <v>348</v>
+      </c>
+      <c r="G17" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>363</v>
+      </c>
+      <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E18" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F18" t="s">
+        <v>348</v>
+      </c>
+      <c r="G18" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>363</v>
+      </c>
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E19" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F19" t="s">
+        <v>348</v>
+      </c>
+      <c r="G19" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>363</v>
+      </c>
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E20" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F20" t="s">
+        <v>348</v>
+      </c>
+      <c r="G20" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>363</v>
+      </c>
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E21" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F21" t="s">
+        <v>348</v>
+      </c>
+      <c r="G21" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>363</v>
+      </c>
+      <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E22" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F22" t="s">
+        <v>348</v>
+      </c>
+      <c r="G22" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>363</v>
+      </c>
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>46</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E23" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F23" t="s">
+        <v>348</v>
+      </c>
+      <c r="G23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>363</v>
+      </c>
+      <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>48</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E24" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F24" t="s">
+        <v>348</v>
+      </c>
+      <c r="G24" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>363</v>
+      </c>
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>50</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E25" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F25" t="s">
+        <v>348</v>
+      </c>
+      <c r="G25" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>363</v>
+      </c>
+      <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>52</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E26" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F26" t="s">
+        <v>348</v>
+      </c>
+      <c r="G26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>363</v>
+      </c>
+      <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>55</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E27" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F27" t="s">
+        <v>348</v>
+      </c>
+      <c r="G27" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>363</v>
+      </c>
+      <c r="B28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>57</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E28" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E28" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F28" t="s">
+        <v>348</v>
+      </c>
+      <c r="G28" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>363</v>
+      </c>
+      <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>60</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E29" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E29" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F29" t="s">
+        <v>348</v>
+      </c>
+      <c r="G29" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>363</v>
+      </c>
+      <c r="B30" t="s">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>63</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E30" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F30" t="s">
+        <v>348</v>
+      </c>
+      <c r="G30" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>363</v>
+      </c>
+      <c r="B31" t="s">
         <v>65</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>66</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E31" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E31" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F31" t="s">
+        <v>348</v>
+      </c>
+      <c r="G31" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>363</v>
+      </c>
+      <c r="B32" t="s">
         <v>68</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>69</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E32" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E32" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F32" t="s">
+        <v>348</v>
+      </c>
+      <c r="G32" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>363</v>
+      </c>
+      <c r="B33" t="s">
         <v>70</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>71</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E33" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F33" t="s">
+        <v>348</v>
+      </c>
+      <c r="G33" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>363</v>
+      </c>
+      <c r="B34" t="s">
         <v>72</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>73</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E34" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F34" t="s">
+        <v>348</v>
+      </c>
+      <c r="G34" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>363</v>
+      </c>
+      <c r="B35" t="s">
         <v>74</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>75</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E35" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F35" t="s">
+        <v>348</v>
+      </c>
+      <c r="G35" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>363</v>
+      </c>
+      <c r="B36" t="s">
         <v>76</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>77</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E36" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E36" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F36" t="s">
+        <v>348</v>
+      </c>
+      <c r="G36" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>363</v>
+      </c>
+      <c r="B37" t="s">
         <v>78</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>79</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E37" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E37" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F37" t="s">
+        <v>348</v>
+      </c>
+      <c r="G37" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>363</v>
+      </c>
+      <c r="B38" t="s">
         <v>80</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>81</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E38" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E38" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F38" t="s">
+        <v>348</v>
+      </c>
+      <c r="G38" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>363</v>
+      </c>
+      <c r="B39" t="s">
         <v>82</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>83</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E39" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E39" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F39" t="s">
+        <v>348</v>
+      </c>
+      <c r="G39" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>363</v>
+      </c>
+      <c r="B40" t="s">
         <v>84</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>85</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E40" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F40" t="s">
+        <v>348</v>
+      </c>
+      <c r="G40" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B41" t="s">
         <v>86</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>87</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E41" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E41" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F41" t="s">
+        <v>348</v>
+      </c>
+      <c r="G41" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>363</v>
+      </c>
+      <c r="B42" t="s">
         <v>89</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>90</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E42" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E42" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F42" t="s">
+        <v>348</v>
+      </c>
+      <c r="G42" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>363</v>
+      </c>
+      <c r="B43" t="s">
         <v>91</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>92</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E43" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E43" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F43" t="s">
+        <v>348</v>
+      </c>
+      <c r="G43" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>363</v>
+      </c>
+      <c r="B44" t="s">
         <v>93</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>94</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E44" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E44" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F44" t="s">
+        <v>348</v>
+      </c>
+      <c r="G44" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>363</v>
+      </c>
+      <c r="B45" t="s">
         <v>96</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>97</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E45" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E45" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F45" t="s">
+        <v>348</v>
+      </c>
+      <c r="G45" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>363</v>
+      </c>
+      <c r="B46" t="s">
         <v>98</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>99</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E46" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E46" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F46" t="s">
+        <v>348</v>
+      </c>
+      <c r="G46" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>363</v>
+      </c>
+      <c r="B47" t="s">
         <v>100</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>101</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E47" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E47" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F47" t="s">
+        <v>348</v>
+      </c>
+      <c r="G47" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>363</v>
+      </c>
+      <c r="B48" t="s">
         <v>102</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>103</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E48" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E48" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F48" t="s">
+        <v>348</v>
+      </c>
+      <c r="G48" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>363</v>
+      </c>
+      <c r="B49" t="s">
         <v>104</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>105</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E49" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E49" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F49" t="s">
+        <v>348</v>
+      </c>
+      <c r="G49" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>363</v>
+      </c>
+      <c r="B50" t="s">
         <v>106</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>107</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E50" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E50" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F50" t="s">
+        <v>348</v>
+      </c>
+      <c r="G50" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>363</v>
+      </c>
+      <c r="B51" t="s">
         <v>108</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>109</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E51" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E51" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F51" t="s">
+        <v>348</v>
+      </c>
+      <c r="G51" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>363</v>
+      </c>
+      <c r="B52" t="s">
         <v>110</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>111</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E52" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E52" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F52" t="s">
+        <v>348</v>
+      </c>
+      <c r="G52" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>363</v>
+      </c>
+      <c r="B53" t="s">
         <v>112</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>113</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E53" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E53" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F53" t="s">
+        <v>348</v>
+      </c>
+      <c r="G53" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>363</v>
+      </c>
+      <c r="B54" t="s">
         <v>114</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>115</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E54" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E54" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F54" t="s">
+        <v>348</v>
+      </c>
+      <c r="G54" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>363</v>
+      </c>
+      <c r="B55" t="s">
         <v>116</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>117</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>36</v>
       </c>
-      <c r="D55" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E55" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E55" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F55" t="s">
+        <v>348</v>
+      </c>
+      <c r="G55" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>363</v>
+      </c>
+      <c r="B56" t="s">
         <v>118</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>119</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E56" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E56" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F56" t="s">
+        <v>348</v>
+      </c>
+      <c r="G56" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>363</v>
+      </c>
+      <c r="B57" t="s">
         <v>120</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>121</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E57" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E57" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F57" t="s">
+        <v>348</v>
+      </c>
+      <c r="G57" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>363</v>
+      </c>
+      <c r="B58" t="s">
         <v>122</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>123</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E58" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E58" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F58" t="s">
+        <v>348</v>
+      </c>
+      <c r="G58" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>363</v>
+      </c>
+      <c r="B59" t="s">
         <v>124</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>125</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E59" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E59" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F59" t="s">
+        <v>348</v>
+      </c>
+      <c r="G59" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>363</v>
+      </c>
+      <c r="B60" t="s">
         <v>126</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>127</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E60" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E60" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F60" t="s">
+        <v>348</v>
+      </c>
+      <c r="G60" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>363</v>
+      </c>
+      <c r="B61" t="s">
         <v>128</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>129</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E61" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E61" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F61" t="s">
+        <v>348</v>
+      </c>
+      <c r="G61" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>363</v>
+      </c>
+      <c r="B62" t="s">
         <v>130</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>131</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>53</v>
       </c>
-      <c r="D62" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E62" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E62" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F62" t="s">
+        <v>348</v>
+      </c>
+      <c r="G62" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>363</v>
+      </c>
+      <c r="B63" t="s">
         <v>132</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>133</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>53</v>
       </c>
-      <c r="D63" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E63" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E63" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F63" t="s">
+        <v>348</v>
+      </c>
+      <c r="G63" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>363</v>
+      </c>
+      <c r="B64" t="s">
         <v>134</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>135</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E64" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E64" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F64" t="s">
+        <v>348</v>
+      </c>
+      <c r="G64" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>363</v>
+      </c>
+      <c r="B65" t="s">
         <v>136</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>137</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>53</v>
       </c>
-      <c r="D65" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E65" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E65" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F65" t="s">
+        <v>348</v>
+      </c>
+      <c r="G65" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>363</v>
+      </c>
+      <c r="B66" t="s">
         <v>138</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>139</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>53</v>
       </c>
-      <c r="D66" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E66" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E66" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F66" t="s">
+        <v>348</v>
+      </c>
+      <c r="G66" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>363</v>
+      </c>
+      <c r="B67" t="s">
         <v>140</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>141</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>36</v>
       </c>
-      <c r="D67" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E67" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E67" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F67" t="s">
+        <v>348</v>
+      </c>
+      <c r="G67" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>363</v>
+      </c>
+      <c r="B68" t="s">
         <v>142</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>143</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>53</v>
       </c>
-      <c r="D68" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E68" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E68" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F68" t="s">
+        <v>348</v>
+      </c>
+      <c r="G68" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>363</v>
+      </c>
+      <c r="B69" t="s">
         <v>144</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>145</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E69" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E69" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F69" t="s">
+        <v>348</v>
+      </c>
+      <c r="G69" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>363</v>
+      </c>
+      <c r="B70" t="s">
         <v>146</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>147</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>53</v>
       </c>
-      <c r="D70" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E70" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E70" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F70" t="s">
+        <v>348</v>
+      </c>
+      <c r="G70" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>363</v>
+      </c>
+      <c r="B71" t="s">
         <v>148</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>149</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>53</v>
       </c>
-      <c r="D71" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E71" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E71" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F71" t="s">
+        <v>348</v>
+      </c>
+      <c r="G71" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>363</v>
+      </c>
+      <c r="B72" t="s">
         <v>150</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>151</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E72" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E72" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F72" t="s">
+        <v>348</v>
+      </c>
+      <c r="G72" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>363</v>
+      </c>
+      <c r="B73" t="s">
         <v>152</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>153</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>64</v>
       </c>
-      <c r="D73" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E73" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E73" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F73" t="s">
+        <v>348</v>
+      </c>
+      <c r="G73" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>363</v>
+      </c>
+      <c r="B74" t="s">
         <v>154</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>155</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>53</v>
       </c>
-      <c r="D74" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E74" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E74" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F74" t="s">
+        <v>348</v>
+      </c>
+      <c r="G74" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>363</v>
+      </c>
+      <c r="B75" t="s">
         <v>156</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>157</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>53</v>
       </c>
-      <c r="D75" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E75" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E75" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F75" t="s">
+        <v>348</v>
+      </c>
+      <c r="G75" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>363</v>
+      </c>
+      <c r="B76" t="s">
         <v>158</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>159</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>53</v>
       </c>
-      <c r="D76" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E76" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E76" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F76" t="s">
+        <v>348</v>
+      </c>
+      <c r="G76" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>363</v>
+      </c>
+      <c r="B77" t="s">
         <v>160</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>161</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>53</v>
       </c>
-      <c r="D77" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E77" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E77" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F77" t="s">
+        <v>348</v>
+      </c>
+      <c r="G77" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>363</v>
+      </c>
+      <c r="B78" t="s">
         <v>162</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>163</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>53</v>
       </c>
-      <c r="D78" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E78" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E78" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F78" t="s">
+        <v>348</v>
+      </c>
+      <c r="G78" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>363</v>
+      </c>
+      <c r="B79" t="s">
         <v>164</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>165</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>53</v>
       </c>
-      <c r="D79" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E79" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E79" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F79" t="s">
+        <v>348</v>
+      </c>
+      <c r="G79" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>363</v>
+      </c>
+      <c r="B80" t="s">
         <v>166</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>167</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>36</v>
       </c>
-      <c r="D80" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E80" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E80" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F80" t="s">
+        <v>348</v>
+      </c>
+      <c r="G80" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>363</v>
+      </c>
+      <c r="B81" t="s">
         <v>168</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>169</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>61</v>
       </c>
-      <c r="D81" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E81" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E81" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F81" t="s">
+        <v>348</v>
+      </c>
+      <c r="G81" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>363</v>
+      </c>
+      <c r="B82" t="s">
         <v>170</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>171</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>53</v>
       </c>
-      <c r="D82" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E82" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E82" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F82" t="s">
+        <v>348</v>
+      </c>
+      <c r="G82" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>363</v>
+      </c>
+      <c r="B83" t="s">
         <v>172</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>173</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>53</v>
       </c>
-      <c r="D83" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E83" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E83" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F83" t="s">
+        <v>348</v>
+      </c>
+      <c r="G83" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>363</v>
+      </c>
+      <c r="B84" t="s">
         <v>174</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>175</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>53</v>
       </c>
-      <c r="D84" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E84" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E84" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F84" t="s">
+        <v>348</v>
+      </c>
+      <c r="G84" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>363</v>
+      </c>
+      <c r="B85" t="s">
         <v>176</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>177</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E85" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E85" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F85" t="s">
+        <v>348</v>
+      </c>
+      <c r="G85" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>363</v>
+      </c>
+      <c r="B86" t="s">
         <v>178</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>179</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>53</v>
       </c>
-      <c r="D86" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E86" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E86" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F86" t="s">
+        <v>348</v>
+      </c>
+      <c r="G86" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>363</v>
+      </c>
+      <c r="B87" t="s">
         <v>180</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>181</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>53</v>
       </c>
-      <c r="D87" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E87" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E87" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F87" t="s">
+        <v>348</v>
+      </c>
+      <c r="G87" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>363</v>
+      </c>
+      <c r="B88" t="s">
         <v>182</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>183</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>53</v>
       </c>
-      <c r="D88" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E88" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E88" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F88" t="s">
+        <v>348</v>
+      </c>
+      <c r="G88" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>363</v>
+      </c>
+      <c r="B89" t="s">
         <v>184</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>185</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>53</v>
       </c>
-      <c r="D89" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E89" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E89" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F89" t="s">
+        <v>348</v>
+      </c>
+      <c r="G89" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>363</v>
+      </c>
+      <c r="B90" t="s">
         <v>186</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>187</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>53</v>
       </c>
-      <c r="D90" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E90" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E90" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F90" t="s">
+        <v>348</v>
+      </c>
+      <c r="G90" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>363</v>
+      </c>
+      <c r="B91" t="s">
         <v>188</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>189</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>53</v>
       </c>
-      <c r="D91" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E91" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E91" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F91" t="s">
+        <v>348</v>
+      </c>
+      <c r="G91" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>363</v>
+      </c>
+      <c r="B92" t="s">
         <v>190</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>191</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>53</v>
       </c>
-      <c r="D92" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E92" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E92" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F92" t="s">
+        <v>348</v>
+      </c>
+      <c r="G92" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>363</v>
+      </c>
+      <c r="B93" t="s">
         <v>192</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>193</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>61</v>
       </c>
-      <c r="D93" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E93" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E93" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F93" t="s">
+        <v>348</v>
+      </c>
+      <c r="G93" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>363</v>
+      </c>
+      <c r="B94" t="s">
         <v>194</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>195</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>53</v>
       </c>
-      <c r="D94" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E94" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E94" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F94" t="s">
+        <v>348</v>
+      </c>
+      <c r="G94" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>363</v>
+      </c>
+      <c r="B95" t="s">
         <v>196</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>197</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>53</v>
       </c>
-      <c r="D95" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E95" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E95" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F95" t="s">
+        <v>348</v>
+      </c>
+      <c r="G95" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>363</v>
+      </c>
+      <c r="B96" t="s">
         <v>198</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>199</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>61</v>
       </c>
-      <c r="D96" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E96" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E96" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F96" t="s">
+        <v>348</v>
+      </c>
+      <c r="G96" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>363</v>
+      </c>
+      <c r="B97" t="s">
         <v>200</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>201</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>61</v>
       </c>
-      <c r="D97" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E97" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E97" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F97" t="s">
+        <v>348</v>
+      </c>
+      <c r="G97" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>363</v>
+      </c>
+      <c r="B98" t="s">
         <v>202</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>203</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>53</v>
       </c>
-      <c r="D98" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E98" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E98" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F98" t="s">
+        <v>348</v>
+      </c>
+      <c r="G98" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>363</v>
+      </c>
+      <c r="B99" t="s">
         <v>204</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>205</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>53</v>
       </c>
-      <c r="D99" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E99" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E99" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F99" t="s">
+        <v>348</v>
+      </c>
+      <c r="G99" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>363</v>
+      </c>
+      <c r="B100" t="s">
         <v>206</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>207</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>53</v>
       </c>
-      <c r="D100" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E100" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E100" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F100" t="s">
+        <v>348</v>
+      </c>
+      <c r="G100" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>363</v>
+      </c>
+      <c r="B101" t="s">
         <v>208</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>209</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>36</v>
       </c>
-      <c r="D101" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E101" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E101" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F101" t="s">
+        <v>348</v>
+      </c>
+      <c r="G101" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>363</v>
+      </c>
+      <c r="B102" t="s">
         <v>210</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>211</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>36</v>
       </c>
-      <c r="D102" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E102" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E102" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F102" t="s">
+        <v>348</v>
+      </c>
+      <c r="G102" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>363</v>
+      </c>
+      <c r="B103" t="s">
         <v>212</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>213</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>53</v>
       </c>
-      <c r="D103" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E103" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E103" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F103" t="s">
+        <v>348</v>
+      </c>
+      <c r="G103" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>363</v>
+      </c>
+      <c r="B104" t="s">
         <v>214</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>215</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>53</v>
       </c>
-      <c r="D104" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E104" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E104" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F104" t="s">
+        <v>348</v>
+      </c>
+      <c r="G104" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>363</v>
+      </c>
+      <c r="B105" t="s">
         <v>216</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>217</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>53</v>
       </c>
-      <c r="D105" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E105" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E105" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F105" t="s">
+        <v>348</v>
+      </c>
+      <c r="G105" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>363</v>
+      </c>
+      <c r="B106" t="s">
         <v>218</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>219</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>53</v>
       </c>
-      <c r="D106" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E106" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E106" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F106" t="s">
+        <v>348</v>
+      </c>
+      <c r="G106" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>363</v>
+      </c>
+      <c r="B107" t="s">
         <v>220</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>221</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>53</v>
       </c>
-      <c r="D107" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E107" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E107" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F107" t="s">
+        <v>348</v>
+      </c>
+      <c r="G107" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>363</v>
+      </c>
+      <c r="B108" t="s">
         <v>222</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>223</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>53</v>
       </c>
-      <c r="D108" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E108" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E108" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F108" t="s">
+        <v>348</v>
+      </c>
+      <c r="G108" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>363</v>
+      </c>
+      <c r="B109" t="s">
         <v>224</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>225</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>53</v>
       </c>
-      <c r="D109" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E109" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E109" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F109" t="s">
+        <v>348</v>
+      </c>
+      <c r="G109" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>363</v>
+      </c>
+      <c r="B110" t="s">
         <v>226</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>227</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>53</v>
       </c>
-      <c r="D110" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E110" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E110" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F110" t="s">
+        <v>348</v>
+      </c>
+      <c r="G110" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>363</v>
+      </c>
+      <c r="B111" t="s">
         <v>228</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>229</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>53</v>
       </c>
-      <c r="D111" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E111" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E111" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F111" t="s">
+        <v>348</v>
+      </c>
+      <c r="G111" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>363</v>
+      </c>
+      <c r="B112" t="s">
         <v>230</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>231</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>53</v>
       </c>
-      <c r="D112" s="4">
-        <v>44885</v>
-      </c>
-      <c r="E112" t="s">
-        <v>348</v>
+      <c r="E112" s="4">
+        <v>44885</v>
+      </c>
+      <c r="F112" t="s">
+        <v>348</v>
+      </c>
+      <c r="G112" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>364</v>
+      </c>
+      <c r="B113" t="s">
+        <v>233</v>
+      </c>
+      <c r="C113" t="s">
+        <v>295</v>
+      </c>
+      <c r="G113" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>364</v>
+      </c>
+      <c r="B114" t="s">
+        <v>234</v>
+      </c>
+      <c r="D114" t="s">
+        <v>296</v>
+      </c>
+      <c r="G114" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>364</v>
+      </c>
+      <c r="B115" t="s">
+        <v>235</v>
+      </c>
+      <c r="D115" t="s">
+        <v>297</v>
+      </c>
+      <c r="G115" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>364</v>
+      </c>
+      <c r="B116" t="s">
+        <v>236</v>
+      </c>
+      <c r="D116" t="s">
+        <v>298</v>
+      </c>
+      <c r="G116" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>364</v>
+      </c>
+      <c r="B117" t="s">
+        <v>237</v>
+      </c>
+      <c r="D117" t="s">
+        <v>299</v>
+      </c>
+      <c r="G117" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>364</v>
+      </c>
+      <c r="B118" t="s">
+        <v>365</v>
+      </c>
+      <c r="D118" t="s">
+        <v>300</v>
+      </c>
+      <c r="G118" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>364</v>
+      </c>
+      <c r="B119" t="s">
+        <v>366</v>
+      </c>
+      <c r="D119" t="s">
+        <v>301</v>
+      </c>
+      <c r="G119" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>364</v>
+      </c>
+      <c r="B120" t="s">
+        <v>367</v>
+      </c>
+      <c r="D120" t="s">
+        <v>302</v>
+      </c>
+      <c r="G120" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>364</v>
+      </c>
+      <c r="B121" t="s">
+        <v>368</v>
+      </c>
+      <c r="D121" t="s">
+        <v>303</v>
+      </c>
+      <c r="G121" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>364</v>
+      </c>
+      <c r="B122" t="s">
+        <v>369</v>
+      </c>
+      <c r="D122" t="s">
+        <v>304</v>
+      </c>
+      <c r="G122" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>364</v>
+      </c>
+      <c r="B123" t="s">
+        <v>244</v>
+      </c>
+      <c r="D123" t="s">
+        <v>305</v>
+      </c>
+      <c r="G123" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>364</v>
+      </c>
+      <c r="B124" t="s">
+        <v>245</v>
+      </c>
+      <c r="D124" t="s">
+        <v>306</v>
+      </c>
+      <c r="G124" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>364</v>
+      </c>
+      <c r="B125" t="s">
+        <v>246</v>
+      </c>
+      <c r="D125" t="s">
+        <v>307</v>
+      </c>
+      <c r="G125" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>375</v>
+      </c>
+      <c r="B126" t="s">
+        <v>248</v>
+      </c>
+      <c r="C126" t="s">
+        <v>308</v>
+      </c>
+      <c r="G126" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>375</v>
+      </c>
+      <c r="B127" t="s">
+        <v>250</v>
+      </c>
+      <c r="C127" t="s">
+        <v>309</v>
+      </c>
+      <c r="G127" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>375</v>
+      </c>
+      <c r="B128" t="s">
+        <v>252</v>
+      </c>
+      <c r="C128" t="s">
+        <v>310</v>
+      </c>
+      <c r="G128" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>375</v>
+      </c>
+      <c r="B129" t="s">
+        <v>253</v>
+      </c>
+      <c r="C129" t="s">
+        <v>311</v>
+      </c>
+      <c r="G129" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>371</v>
+      </c>
+      <c r="B130" t="s">
+        <v>255</v>
+      </c>
+      <c r="G130" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>371</v>
+      </c>
+      <c r="B131" t="s">
+        <v>256</v>
+      </c>
+      <c r="C131" t="s">
+        <v>313</v>
+      </c>
+      <c r="G131" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>371</v>
+      </c>
+      <c r="B132" t="s">
+        <v>257</v>
+      </c>
+      <c r="C132" t="s">
+        <v>314</v>
+      </c>
+      <c r="G132" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>371</v>
+      </c>
+      <c r="B133" t="s">
+        <v>258</v>
+      </c>
+      <c r="C133" t="s">
+        <v>315</v>
+      </c>
+      <c r="G133" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>371</v>
+      </c>
+      <c r="B134" t="s">
+        <v>259</v>
+      </c>
+      <c r="G134" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>371</v>
+      </c>
+      <c r="B135" t="s">
+        <v>260</v>
+      </c>
+      <c r="C135" t="s">
+        <v>317</v>
+      </c>
+      <c r="G135" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>371</v>
+      </c>
+      <c r="B136" t="s">
+        <v>261</v>
+      </c>
+      <c r="C136" t="s">
+        <v>318</v>
+      </c>
+      <c r="G136" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>372</v>
+      </c>
+      <c r="B137" t="s">
+        <v>263</v>
+      </c>
+      <c r="C137" t="s">
+        <v>319</v>
+      </c>
+      <c r="G137" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>372</v>
+      </c>
+      <c r="B138" t="s">
+        <v>264</v>
+      </c>
+      <c r="C138" t="s">
+        <v>320</v>
+      </c>
+      <c r="G138" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>372</v>
+      </c>
+      <c r="B139" t="s">
+        <v>265</v>
+      </c>
+      <c r="C139" t="s">
+        <v>321</v>
+      </c>
+      <c r="G139" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>372</v>
+      </c>
+      <c r="B140" t="s">
+        <v>266</v>
+      </c>
+      <c r="C140" t="s">
+        <v>322</v>
+      </c>
+      <c r="G140" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>372</v>
+      </c>
+      <c r="B141" t="s">
+        <v>267</v>
+      </c>
+      <c r="C141" t="s">
+        <v>323</v>
+      </c>
+      <c r="G141" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>372</v>
+      </c>
+      <c r="B142" t="s">
+        <v>268</v>
+      </c>
+      <c r="C142" t="s">
+        <v>324</v>
+      </c>
+      <c r="G142" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>372</v>
+      </c>
+      <c r="B143" t="s">
+        <v>269</v>
+      </c>
+      <c r="C143" t="s">
+        <v>325</v>
+      </c>
+      <c r="G143" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>372</v>
+      </c>
+      <c r="B144" t="s">
+        <v>270</v>
+      </c>
+      <c r="C144" t="s">
+        <v>326</v>
+      </c>
+      <c r="G144" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>372</v>
+      </c>
+      <c r="B145" t="s">
+        <v>271</v>
+      </c>
+      <c r="C145" t="s">
+        <v>327</v>
+      </c>
+      <c r="G145" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>372</v>
+      </c>
+      <c r="B146" t="s">
+        <v>272</v>
+      </c>
+      <c r="C146" t="s">
+        <v>328</v>
+      </c>
+      <c r="G146" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>370</v>
+      </c>
+      <c r="B147" t="s">
+        <v>274</v>
+      </c>
+      <c r="C147" t="s">
+        <v>329</v>
+      </c>
+      <c r="G147" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>370</v>
+      </c>
+      <c r="B148" t="s">
+        <v>275</v>
+      </c>
+      <c r="C148" t="s">
+        <v>330</v>
+      </c>
+      <c r="G148" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>370</v>
+      </c>
+      <c r="B149" t="s">
+        <v>276</v>
+      </c>
+      <c r="C149" t="s">
+        <v>331</v>
+      </c>
+      <c r="G149" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>370</v>
+      </c>
+      <c r="B150" t="s">
+        <v>277</v>
+      </c>
+      <c r="C150" t="s">
+        <v>332</v>
+      </c>
+      <c r="G150" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>370</v>
+      </c>
+      <c r="B151" t="s">
+        <v>278</v>
+      </c>
+      <c r="C151" t="s">
+        <v>333</v>
+      </c>
+      <c r="G151" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>373</v>
+      </c>
+      <c r="B152" t="s">
+        <v>280</v>
+      </c>
+      <c r="C152" t="s">
+        <v>334</v>
+      </c>
+      <c r="G152" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>373</v>
+      </c>
+      <c r="B153" t="s">
+        <v>281</v>
+      </c>
+      <c r="C153" t="s">
+        <v>335</v>
+      </c>
+      <c r="G153" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>373</v>
+      </c>
+      <c r="B154" t="s">
+        <v>282</v>
+      </c>
+      <c r="C154" t="s">
+        <v>336</v>
+      </c>
+      <c r="G154" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>374</v>
+      </c>
+      <c r="B155" t="s">
+        <v>284</v>
+      </c>
+      <c r="C155" t="s">
+        <v>337</v>
+      </c>
+      <c r="G155" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>374</v>
+      </c>
+      <c r="B156" t="s">
+        <v>285</v>
+      </c>
+      <c r="C156" t="s">
+        <v>338</v>
+      </c>
+      <c r="G156" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>374</v>
+      </c>
+      <c r="B157" t="s">
+        <v>286</v>
+      </c>
+      <c r="C157" t="s">
+        <v>339</v>
+      </c>
+      <c r="G157" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>374</v>
+      </c>
+      <c r="B158" t="s">
+        <v>287</v>
+      </c>
+      <c r="C158" t="s">
+        <v>340</v>
+      </c>
+      <c r="G158" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>374</v>
+      </c>
+      <c r="B159" t="s">
+        <v>288</v>
+      </c>
+      <c r="C159" t="s">
+        <v>341</v>
+      </c>
+      <c r="G159" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>374</v>
+      </c>
+      <c r="B160" t="s">
+        <v>289</v>
+      </c>
+      <c r="C160" t="s">
+        <v>342</v>
+      </c>
+      <c r="G160" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>374</v>
+      </c>
+      <c r="B161" t="s">
+        <v>290</v>
+      </c>
+      <c r="C161" t="s">
+        <v>343</v>
+      </c>
+      <c r="G161" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>374</v>
+      </c>
+      <c r="B162" t="s">
+        <v>291</v>
+      </c>
+      <c r="C162" t="s">
+        <v>344</v>
+      </c>
+      <c r="G162" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>374</v>
+      </c>
+      <c r="B163" t="s">
+        <v>292</v>
+      </c>
+      <c r="C163" t="s">
+        <v>345</v>
+      </c>
+      <c r="G163" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>374</v>
+      </c>
+      <c r="B164" t="s">
+        <v>293</v>
+      </c>
+      <c r="C164" t="s">
+        <v>346</v>
+      </c>
+      <c r="G164" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>374</v>
+      </c>
+      <c r="B165" t="s">
+        <v>294</v>
+      </c>
+      <c r="C165" t="s">
+        <v>347</v>
+      </c>
+      <c r="G165" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -3527,7 +4921,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674E778E-6EE7-48DC-9458-6E54369E644F}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A60"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/cypress/fixtures/expectedResults/Personal lines/HOC IA 11 20 22.xlsx
+++ b/cypress/fixtures/expectedResults/Personal lines/HOC IA 11 20 22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreis/MyOwnProject/api-test-cypress/cypress/fixtures/expectedResults/Personal lines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22744866-7963-D94E-9349-7D950FB9BBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62EA15F-EC89-E642-A845-B1EB5077DC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4400" yWindow="-25520" windowWidth="35840" windowHeight="20800" xr2:uid="{992EAC74-168D-4556-9021-6B1FC9608133}"/>
+    <workbookView xWindow="-4440" yWindow="-25520" windowWidth="35840" windowHeight="20800" xr2:uid="{992EAC74-168D-4556-9021-6B1FC9608133}"/>
   </bookViews>
   <sheets>
     <sheet name="Forms and Bulletins" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="377">
   <si>
     <t>CRITERIA</t>
   </si>
@@ -1247,13 +1247,13 @@
     <t>STP</t>
   </si>
   <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>Forms</t>
+  </si>
+  <si>
     <t>REP</t>
-  </si>
-  <si>
-    <t>MAN</t>
-  </si>
-  <si>
-    <t>Forms</t>
   </si>
 </sst>
 </file>
@@ -1733,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6089C9B-6C1F-41AA-9E90-19600F8F153D}">
   <dimension ref="A2:G165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F127" sqref="F127"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172:B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1827,7 +1827,7 @@
         <v>348</v>
       </c>
       <c r="G10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1850,7 +1850,7 @@
         <v>348</v>
       </c>
       <c r="G11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1873,7 +1873,7 @@
         <v>348</v>
       </c>
       <c r="G12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1896,7 +1896,7 @@
         <v>348</v>
       </c>
       <c r="G13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1919,7 +1919,7 @@
         <v>348</v>
       </c>
       <c r="G14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1942,7 +1942,7 @@
         <v>348</v>
       </c>
       <c r="G15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1965,7 +1965,7 @@
         <v>348</v>
       </c>
       <c r="G16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1988,7 +1988,7 @@
         <v>348</v>
       </c>
       <c r="G17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2011,7 +2011,7 @@
         <v>348</v>
       </c>
       <c r="G18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2034,7 +2034,7 @@
         <v>348</v>
       </c>
       <c r="G19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2057,7 +2057,7 @@
         <v>348</v>
       </c>
       <c r="G20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2080,7 +2080,7 @@
         <v>348</v>
       </c>
       <c r="G21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2103,7 +2103,7 @@
         <v>348</v>
       </c>
       <c r="G22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -2126,7 +2126,7 @@
         <v>348</v>
       </c>
       <c r="G23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -2149,7 +2149,7 @@
         <v>348</v>
       </c>
       <c r="G24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -2172,7 +2172,7 @@
         <v>348</v>
       </c>
       <c r="G25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2195,7 +2195,7 @@
         <v>348</v>
       </c>
       <c r="G26" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2218,7 +2218,7 @@
         <v>348</v>
       </c>
       <c r="G27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2241,7 +2241,7 @@
         <v>348</v>
       </c>
       <c r="G28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2264,7 +2264,7 @@
         <v>348</v>
       </c>
       <c r="G29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2287,7 +2287,7 @@
         <v>348</v>
       </c>
       <c r="G30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2310,7 +2310,7 @@
         <v>348</v>
       </c>
       <c r="G31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2333,7 +2333,7 @@
         <v>348</v>
       </c>
       <c r="G32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2356,7 +2356,7 @@
         <v>348</v>
       </c>
       <c r="G33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2379,7 +2379,7 @@
         <v>348</v>
       </c>
       <c r="G34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2402,7 +2402,7 @@
         <v>348</v>
       </c>
       <c r="G35" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -2425,7 +2425,7 @@
         <v>348</v>
       </c>
       <c r="G36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2448,7 +2448,7 @@
         <v>348</v>
       </c>
       <c r="G37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2471,7 +2471,7 @@
         <v>348</v>
       </c>
       <c r="G38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2494,7 +2494,7 @@
         <v>348</v>
       </c>
       <c r="G39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2517,7 +2517,7 @@
         <v>348</v>
       </c>
       <c r="G40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2540,7 +2540,7 @@
         <v>348</v>
       </c>
       <c r="G41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2563,7 +2563,7 @@
         <v>348</v>
       </c>
       <c r="G42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -2586,7 +2586,7 @@
         <v>348</v>
       </c>
       <c r="G43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -2609,7 +2609,7 @@
         <v>348</v>
       </c>
       <c r="G44" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2632,7 +2632,7 @@
         <v>348</v>
       </c>
       <c r="G45" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2655,7 +2655,7 @@
         <v>348</v>
       </c>
       <c r="G46" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -2678,7 +2678,7 @@
         <v>348</v>
       </c>
       <c r="G47" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2701,7 +2701,7 @@
         <v>348</v>
       </c>
       <c r="G48" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -2724,7 +2724,7 @@
         <v>348</v>
       </c>
       <c r="G49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -2747,7 +2747,7 @@
         <v>348</v>
       </c>
       <c r="G50" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -2770,7 +2770,7 @@
         <v>348</v>
       </c>
       <c r="G51" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -2793,7 +2793,7 @@
         <v>348</v>
       </c>
       <c r="G52" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -2816,7 +2816,7 @@
         <v>348</v>
       </c>
       <c r="G53" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -2839,7 +2839,7 @@
         <v>348</v>
       </c>
       <c r="G54" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -2862,7 +2862,7 @@
         <v>348</v>
       </c>
       <c r="G55" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2885,7 +2885,7 @@
         <v>348</v>
       </c>
       <c r="G56" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -2908,7 +2908,7 @@
         <v>348</v>
       </c>
       <c r="G57" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2931,7 +2931,7 @@
         <v>348</v>
       </c>
       <c r="G58" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -2954,7 +2954,7 @@
         <v>348</v>
       </c>
       <c r="G59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -2977,7 +2977,7 @@
         <v>348</v>
       </c>
       <c r="G60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -3000,7 +3000,7 @@
         <v>348</v>
       </c>
       <c r="G61" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -3023,7 +3023,7 @@
         <v>348</v>
       </c>
       <c r="G62" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -3046,7 +3046,7 @@
         <v>348</v>
       </c>
       <c r="G63" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -3069,7 +3069,7 @@
         <v>348</v>
       </c>
       <c r="G64" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -3092,7 +3092,7 @@
         <v>348</v>
       </c>
       <c r="G65" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -3115,7 +3115,7 @@
         <v>348</v>
       </c>
       <c r="G66" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -3138,7 +3138,7 @@
         <v>348</v>
       </c>
       <c r="G67" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -3161,7 +3161,7 @@
         <v>348</v>
       </c>
       <c r="G68" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -3184,7 +3184,7 @@
         <v>348</v>
       </c>
       <c r="G69" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -3207,7 +3207,7 @@
         <v>348</v>
       </c>
       <c r="G70" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -3230,7 +3230,7 @@
         <v>348</v>
       </c>
       <c r="G71" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -3253,7 +3253,7 @@
         <v>348</v>
       </c>
       <c r="G72" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -3276,7 +3276,7 @@
         <v>348</v>
       </c>
       <c r="G73" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -3299,7 +3299,7 @@
         <v>348</v>
       </c>
       <c r="G74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -3322,7 +3322,7 @@
         <v>348</v>
       </c>
       <c r="G75" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -3345,7 +3345,7 @@
         <v>348</v>
       </c>
       <c r="G76" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -3368,7 +3368,7 @@
         <v>348</v>
       </c>
       <c r="G77" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -3391,7 +3391,7 @@
         <v>348</v>
       </c>
       <c r="G78" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -3414,7 +3414,7 @@
         <v>348</v>
       </c>
       <c r="G79" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -3437,7 +3437,7 @@
         <v>348</v>
       </c>
       <c r="G80" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -3460,7 +3460,7 @@
         <v>348</v>
       </c>
       <c r="G81" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -3483,7 +3483,7 @@
         <v>348</v>
       </c>
       <c r="G82" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -3506,7 +3506,7 @@
         <v>348</v>
       </c>
       <c r="G83" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -3529,7 +3529,7 @@
         <v>348</v>
       </c>
       <c r="G84" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -3552,7 +3552,7 @@
         <v>348</v>
       </c>
       <c r="G85" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -3575,7 +3575,7 @@
         <v>348</v>
       </c>
       <c r="G86" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -3598,7 +3598,7 @@
         <v>348</v>
       </c>
       <c r="G87" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -3621,7 +3621,7 @@
         <v>348</v>
       </c>
       <c r="G88" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -3644,7 +3644,7 @@
         <v>348</v>
       </c>
       <c r="G89" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -3667,7 +3667,7 @@
         <v>348</v>
       </c>
       <c r="G90" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -3690,7 +3690,7 @@
         <v>348</v>
       </c>
       <c r="G91" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -3713,7 +3713,7 @@
         <v>348</v>
       </c>
       <c r="G92" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -3736,7 +3736,7 @@
         <v>348</v>
       </c>
       <c r="G93" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -3759,7 +3759,7 @@
         <v>348</v>
       </c>
       <c r="G94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -3782,7 +3782,7 @@
         <v>348</v>
       </c>
       <c r="G95" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -3805,7 +3805,7 @@
         <v>348</v>
       </c>
       <c r="G96" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -3828,7 +3828,7 @@
         <v>348</v>
       </c>
       <c r="G97" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -3851,7 +3851,7 @@
         <v>348</v>
       </c>
       <c r="G98" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -3874,7 +3874,7 @@
         <v>348</v>
       </c>
       <c r="G99" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -3897,7 +3897,7 @@
         <v>348</v>
       </c>
       <c r="G100" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -3920,7 +3920,7 @@
         <v>348</v>
       </c>
       <c r="G101" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -3943,7 +3943,7 @@
         <v>348</v>
       </c>
       <c r="G102" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -3966,7 +3966,7 @@
         <v>348</v>
       </c>
       <c r="G103" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -3989,7 +3989,7 @@
         <v>348</v>
       </c>
       <c r="G104" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -4012,7 +4012,7 @@
         <v>348</v>
       </c>
       <c r="G105" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -4035,7 +4035,7 @@
         <v>348</v>
       </c>
       <c r="G106" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -4058,7 +4058,7 @@
         <v>348</v>
       </c>
       <c r="G107" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -4081,7 +4081,7 @@
         <v>348</v>
       </c>
       <c r="G108" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -4104,7 +4104,7 @@
         <v>348</v>
       </c>
       <c r="G109" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -4127,7 +4127,7 @@
         <v>348</v>
       </c>
       <c r="G110" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -4150,7 +4150,7 @@
         <v>348</v>
       </c>
       <c r="G111" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -4173,7 +4173,7 @@
         <v>348</v>
       </c>
       <c r="G112" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -4360,7 +4360,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B126" t="s">
         <v>248</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B127" t="s">
         <v>250</v>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B128" t="s">
         <v>252</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B129" t="s">
         <v>253</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B155" t="s">
         <v>284</v>
@@ -4768,13 +4768,13 @@
       <c r="C155" t="s">
         <v>337</v>
       </c>
-      <c r="G155" t="s">
-        <v>283</v>
+      <c r="G155" s="4">
+        <v>44885</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B156" t="s">
         <v>285</v>
@@ -4782,13 +4782,13 @@
       <c r="C156" t="s">
         <v>338</v>
       </c>
-      <c r="G156" t="s">
-        <v>283</v>
+      <c r="G156" s="4">
+        <v>44885</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B157" t="s">
         <v>286</v>
@@ -4796,13 +4796,13 @@
       <c r="C157" t="s">
         <v>339</v>
       </c>
-      <c r="G157" t="s">
-        <v>283</v>
+      <c r="G157" s="4">
+        <v>44885</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B158" t="s">
         <v>287</v>
@@ -4810,13 +4810,13 @@
       <c r="C158" t="s">
         <v>340</v>
       </c>
-      <c r="G158" t="s">
-        <v>283</v>
+      <c r="G158" s="4">
+        <v>44885</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B159" t="s">
         <v>288</v>
@@ -4824,13 +4824,13 @@
       <c r="C159" t="s">
         <v>341</v>
       </c>
-      <c r="G159" t="s">
-        <v>283</v>
+      <c r="G159" s="4">
+        <v>44885</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B160" t="s">
         <v>289</v>
@@ -4838,13 +4838,13 @@
       <c r="C160" t="s">
         <v>342</v>
       </c>
-      <c r="G160" t="s">
-        <v>283</v>
+      <c r="G160" s="4">
+        <v>44885</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B161" t="s">
         <v>290</v>
@@ -4852,13 +4852,13 @@
       <c r="C161" t="s">
         <v>343</v>
       </c>
-      <c r="G161" t="s">
-        <v>283</v>
+      <c r="G161" s="4">
+        <v>44885</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B162" t="s">
         <v>291</v>
@@ -4866,13 +4866,13 @@
       <c r="C162" t="s">
         <v>344</v>
       </c>
-      <c r="G162" t="s">
-        <v>283</v>
+      <c r="G162" s="4">
+        <v>44885</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B163" t="s">
         <v>292</v>
@@ -4880,13 +4880,13 @@
       <c r="C163" t="s">
         <v>345</v>
       </c>
-      <c r="G163" t="s">
-        <v>283</v>
+      <c r="G163" s="4">
+        <v>44885</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B164" t="s">
         <v>293</v>
@@ -4894,13 +4894,13 @@
       <c r="C164" t="s">
         <v>346</v>
       </c>
-      <c r="G164" t="s">
-        <v>283</v>
+      <c r="G164" s="4">
+        <v>44885</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B165" t="s">
         <v>294</v>
@@ -4908,8 +4908,8 @@
       <c r="C165" t="s">
         <v>347</v>
       </c>
-      <c r="G165" t="s">
-        <v>283</v>
+      <c r="G165" s="4">
+        <v>44885</v>
       </c>
     </row>
   </sheetData>
@@ -4921,8 +4921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674E778E-6EE7-48DC-9458-6E54369E644F}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A60"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/cypress/fixtures/expectedResults/Personal lines/HOC IA 11 20 22.xlsx
+++ b/cypress/fixtures/expectedResults/Personal lines/HOC IA 11 20 22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreis/MyOwnProject/api-test-cypress/cypress/fixtures/expectedResults/Personal lines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62EA15F-EC89-E642-A845-B1EB5077DC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4444DE41-45FB-A24D-955B-4A07C4F34672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4440" yWindow="-25520" windowWidth="35840" windowHeight="20800" xr2:uid="{992EAC74-168D-4556-9021-6B1FC9608133}"/>
+    <workbookView xWindow="6940" yWindow="-26860" windowWidth="35840" windowHeight="20800" xr2:uid="{992EAC74-168D-4556-9021-6B1FC9608133}"/>
   </bookViews>
   <sheets>
     <sheet name="Forms and Bulletins" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="382">
   <si>
     <t>CRITERIA</t>
   </si>
@@ -1214,12 +1214,6 @@
     <t>HO</t>
   </si>
   <si>
-    <t>PFM</t>
-  </si>
-  <si>
-    <t>FEL</t>
-  </si>
-  <si>
     <t>Forms &amp; Endorsement List 06 24 11 IA</t>
   </si>
   <si>
@@ -1235,25 +1229,46 @@
     <t>Forms &amp; Endorsement List 12 19 08 IA</t>
   </si>
   <si>
-    <t>SUP</t>
-  </si>
-  <si>
-    <t>PRI</t>
-  </si>
-  <si>
-    <t>PRL</t>
-  </si>
-  <si>
-    <t>STP</t>
-  </si>
-  <si>
-    <t>MAN</t>
-  </si>
-  <si>
     <t>Forms</t>
   </si>
   <si>
-    <t>REP</t>
+    <t>Publication type</t>
+  </si>
+  <si>
+    <t>Publication Category</t>
+  </si>
+  <si>
+    <t>Forms and Endorsements Lists</t>
+  </si>
+  <si>
+    <t>Forms and Endorsements List</t>
+  </si>
+  <si>
+    <t>Multi State Forms and Endorsements List</t>
+  </si>
+  <si>
+    <t>Manual Materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi &amp; State-Specific Manuals </t>
+  </si>
+  <si>
+    <t>Advisory Information</t>
+  </si>
+  <si>
+    <t>Homeowners Advisory Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education Materials </t>
+  </si>
+  <si>
+    <t>Statistical Plans</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>Status Report</t>
   </si>
 </sst>
 </file>
@@ -1731,29 +1746,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6089C9B-6C1F-41AA-9E90-19600F8F153D}">
-  <dimension ref="A2:G165"/>
+  <dimension ref="A2:H165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172:B173"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="60.1640625" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
-    <col min="5" max="5" width="34.1640625" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="3" max="3" width="60.1640625" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="6" max="6" width="34.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1761,7 +1778,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1769,3146 +1786,3620 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4">
         <v>44885</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="2"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>368</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G10" t="s">
+        <v>348</v>
+      </c>
+      <c r="H10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G11" t="s">
+        <v>348</v>
+      </c>
+      <c r="H11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>368</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G12" t="s">
+        <v>348</v>
+      </c>
+      <c r="H12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>368</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G13" t="s">
+        <v>348</v>
+      </c>
+      <c r="H13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>368</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G14" t="s">
+        <v>348</v>
+      </c>
+      <c r="H14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>368</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G15" t="s">
+        <v>348</v>
+      </c>
+      <c r="H15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>368</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G16" t="s">
+        <v>348</v>
+      </c>
+      <c r="H16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>368</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>361</v>
+      </c>
+      <c r="F17" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G17" t="s">
+        <v>348</v>
+      </c>
+      <c r="H17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>368</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G18" t="s">
+        <v>348</v>
+      </c>
+      <c r="H18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>368</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G19" t="s">
+        <v>348</v>
+      </c>
+      <c r="H19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>368</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G20" t="s">
+        <v>348</v>
+      </c>
+      <c r="H20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>368</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G21" t="s">
+        <v>348</v>
+      </c>
+      <c r="H21" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>368</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G22" t="s">
+        <v>348</v>
+      </c>
+      <c r="H22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>368</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G23" t="s">
+        <v>348</v>
+      </c>
+      <c r="H23" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>368</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G24" t="s">
+        <v>348</v>
+      </c>
+      <c r="H24" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>368</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G25" t="s">
+        <v>348</v>
+      </c>
+      <c r="H25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G26" t="s">
+        <v>348</v>
+      </c>
+      <c r="H26" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>368</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G27" t="s">
+        <v>348</v>
+      </c>
+      <c r="H27" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>368</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G28" t="s">
+        <v>348</v>
+      </c>
+      <c r="H28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>368</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G29" t="s">
+        <v>348</v>
+      </c>
+      <c r="H29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>368</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G30" t="s">
+        <v>348</v>
+      </c>
+      <c r="H30" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>368</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G31" t="s">
+        <v>348</v>
+      </c>
+      <c r="H31" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>368</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G32" t="s">
+        <v>348</v>
+      </c>
+      <c r="H32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>368</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G33" t="s">
+        <v>348</v>
+      </c>
+      <c r="H33" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>368</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G34" t="s">
+        <v>348</v>
+      </c>
+      <c r="H34" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>368</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G35" t="s">
+        <v>348</v>
+      </c>
+      <c r="H35" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>368</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G36" t="s">
+        <v>348</v>
+      </c>
+      <c r="H36" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>368</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G37" t="s">
+        <v>348</v>
+      </c>
+      <c r="H37" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>368</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G38" t="s">
+        <v>348</v>
+      </c>
+      <c r="H38" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>368</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G39" t="s">
+        <v>348</v>
+      </c>
+      <c r="H39" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>368</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G40" t="s">
+        <v>348</v>
+      </c>
+      <c r="H40" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>368</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G41" t="s">
+        <v>348</v>
+      </c>
+      <c r="H41" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>368</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G42" t="s">
+        <v>348</v>
+      </c>
+      <c r="H42" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>368</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G43" t="s">
+        <v>348</v>
+      </c>
+      <c r="H43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>368</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G44" t="s">
+        <v>348</v>
+      </c>
+      <c r="H44" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>368</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G45" t="s">
+        <v>348</v>
+      </c>
+      <c r="H45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>368</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G46" t="s">
+        <v>348</v>
+      </c>
+      <c r="H46" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>368</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G47" t="s">
+        <v>348</v>
+      </c>
+      <c r="H47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>368</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G48" t="s">
+        <v>348</v>
+      </c>
+      <c r="H48" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>368</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G49" t="s">
+        <v>348</v>
+      </c>
+      <c r="H49" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>368</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G50" t="s">
+        <v>348</v>
+      </c>
+      <c r="H50" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>368</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" t="s">
+        <v>109</v>
+      </c>
+      <c r="E51" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G51" t="s">
+        <v>348</v>
+      </c>
+      <c r="H51" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>368</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G52" t="s">
+        <v>348</v>
+      </c>
+      <c r="H52" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>368</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" t="s">
+        <v>53</v>
+      </c>
+      <c r="F53" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G53" t="s">
+        <v>348</v>
+      </c>
+      <c r="H53" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>368</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G54" t="s">
+        <v>348</v>
+      </c>
+      <c r="H54" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>368</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G55" t="s">
+        <v>348</v>
+      </c>
+      <c r="H55" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>368</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G56" t="s">
+        <v>348</v>
+      </c>
+      <c r="H56" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>368</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G57" t="s">
+        <v>348</v>
+      </c>
+      <c r="H57" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>368</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G58" t="s">
+        <v>348</v>
+      </c>
+      <c r="H58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>368</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G59" t="s">
+        <v>348</v>
+      </c>
+      <c r="H59" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>368</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F60" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G60" t="s">
+        <v>348</v>
+      </c>
+      <c r="H60" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>368</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G61" t="s">
+        <v>348</v>
+      </c>
+      <c r="H61" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>368</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G62" t="s">
+        <v>348</v>
+      </c>
+      <c r="H62" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>368</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" t="s">
+        <v>53</v>
+      </c>
+      <c r="F63" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G63" t="s">
+        <v>348</v>
+      </c>
+      <c r="H63" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>368</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G64" t="s">
+        <v>348</v>
+      </c>
+      <c r="H64" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>368</v>
+      </c>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F65" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G65" t="s">
+        <v>348</v>
+      </c>
+      <c r="H65" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>368</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" t="s">
+        <v>53</v>
+      </c>
+      <c r="F66" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G66" t="s">
+        <v>348</v>
+      </c>
+      <c r="H66" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>368</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G67" t="s">
+        <v>348</v>
+      </c>
+      <c r="H67" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>368</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" t="s">
+        <v>53</v>
+      </c>
+      <c r="F68" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G68" t="s">
+        <v>348</v>
+      </c>
+      <c r="H68" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>368</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" t="s">
+        <v>145</v>
+      </c>
+      <c r="E69" t="s">
+        <v>61</v>
+      </c>
+      <c r="F69" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G69" t="s">
+        <v>348</v>
+      </c>
+      <c r="H69" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>368</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" t="s">
+        <v>147</v>
+      </c>
+      <c r="E70" t="s">
+        <v>53</v>
+      </c>
+      <c r="F70" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G70" t="s">
+        <v>348</v>
+      </c>
+      <c r="H70" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>368</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" t="s">
+        <v>149</v>
+      </c>
+      <c r="E71" t="s">
+        <v>53</v>
+      </c>
+      <c r="F71" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G71" t="s">
+        <v>348</v>
+      </c>
+      <c r="H71" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>368</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" t="s">
+        <v>64</v>
+      </c>
+      <c r="F72" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G72" t="s">
+        <v>348</v>
+      </c>
+      <c r="H72" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>368</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" t="s">
+        <v>153</v>
+      </c>
+      <c r="E73" t="s">
+        <v>64</v>
+      </c>
+      <c r="F73" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G73" t="s">
+        <v>348</v>
+      </c>
+      <c r="H73" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>368</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" t="s">
+        <v>155</v>
+      </c>
+      <c r="E74" t="s">
+        <v>53</v>
+      </c>
+      <c r="F74" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G74" t="s">
+        <v>348</v>
+      </c>
+      <c r="H74" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>368</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" t="s">
+        <v>156</v>
+      </c>
+      <c r="D75" t="s">
+        <v>157</v>
+      </c>
+      <c r="E75" t="s">
+        <v>53</v>
+      </c>
+      <c r="F75" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G75" t="s">
+        <v>348</v>
+      </c>
+      <c r="H75" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>368</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>158</v>
+      </c>
+      <c r="D76" t="s">
+        <v>159</v>
+      </c>
+      <c r="E76" t="s">
+        <v>53</v>
+      </c>
+      <c r="F76" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G76" t="s">
+        <v>348</v>
+      </c>
+      <c r="H76" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>368</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>160</v>
+      </c>
+      <c r="D77" t="s">
+        <v>161</v>
+      </c>
+      <c r="E77" t="s">
+        <v>53</v>
+      </c>
+      <c r="F77" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G77" t="s">
+        <v>348</v>
+      </c>
+      <c r="H77" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>368</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" t="s">
+        <v>163</v>
+      </c>
+      <c r="E78" t="s">
+        <v>53</v>
+      </c>
+      <c r="F78" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G78" t="s">
+        <v>348</v>
+      </c>
+      <c r="H78" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>368</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" t="s">
+        <v>165</v>
+      </c>
+      <c r="E79" t="s">
+        <v>53</v>
+      </c>
+      <c r="F79" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G79" t="s">
+        <v>348</v>
+      </c>
+      <c r="H79" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>368</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
+        <v>166</v>
+      </c>
+      <c r="D80" t="s">
+        <v>167</v>
+      </c>
+      <c r="E80" t="s">
+        <v>36</v>
+      </c>
+      <c r="F80" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G80" t="s">
+        <v>348</v>
+      </c>
+      <c r="H80" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>368</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" t="s">
+        <v>168</v>
+      </c>
+      <c r="D81" t="s">
+        <v>169</v>
+      </c>
+      <c r="E81" t="s">
+        <v>61</v>
+      </c>
+      <c r="F81" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G81" t="s">
+        <v>348</v>
+      </c>
+      <c r="H81" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>368</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" t="s">
+        <v>170</v>
+      </c>
+      <c r="D82" t="s">
+        <v>171</v>
+      </c>
+      <c r="E82" t="s">
+        <v>53</v>
+      </c>
+      <c r="F82" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G82" t="s">
+        <v>348</v>
+      </c>
+      <c r="H82" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>368</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" t="s">
+        <v>172</v>
+      </c>
+      <c r="D83" t="s">
+        <v>173</v>
+      </c>
+      <c r="E83" t="s">
+        <v>53</v>
+      </c>
+      <c r="F83" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G83" t="s">
+        <v>348</v>
+      </c>
+      <c r="H83" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>368</v>
+      </c>
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" t="s">
+        <v>174</v>
+      </c>
+      <c r="D84" t="s">
+        <v>175</v>
+      </c>
+      <c r="E84" t="s">
+        <v>53</v>
+      </c>
+      <c r="F84" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G84" t="s">
+        <v>348</v>
+      </c>
+      <c r="H84" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>368</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" t="s">
+        <v>176</v>
+      </c>
+      <c r="D85" t="s">
+        <v>177</v>
+      </c>
+      <c r="E85" t="s">
+        <v>53</v>
+      </c>
+      <c r="F85" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G85" t="s">
+        <v>348</v>
+      </c>
+      <c r="H85" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>368</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" t="s">
+        <v>178</v>
+      </c>
+      <c r="D86" t="s">
+        <v>179</v>
+      </c>
+      <c r="E86" t="s">
+        <v>53</v>
+      </c>
+      <c r="F86" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G86" t="s">
+        <v>348</v>
+      </c>
+      <c r="H86" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>368</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>180</v>
+      </c>
+      <c r="D87" t="s">
+        <v>181</v>
+      </c>
+      <c r="E87" t="s">
+        <v>53</v>
+      </c>
+      <c r="F87" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G87" t="s">
+        <v>348</v>
+      </c>
+      <c r="H87" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>368</v>
+      </c>
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" t="s">
+        <v>182</v>
+      </c>
+      <c r="D88" t="s">
+        <v>183</v>
+      </c>
+      <c r="E88" t="s">
+        <v>53</v>
+      </c>
+      <c r="F88" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G88" t="s">
+        <v>348</v>
+      </c>
+      <c r="H88" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>368</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" t="s">
+        <v>185</v>
+      </c>
+      <c r="E89" t="s">
+        <v>53</v>
+      </c>
+      <c r="F89" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G89" t="s">
+        <v>348</v>
+      </c>
+      <c r="H89" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>368</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>186</v>
+      </c>
+      <c r="D90" t="s">
+        <v>187</v>
+      </c>
+      <c r="E90" t="s">
+        <v>53</v>
+      </c>
+      <c r="F90" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G90" t="s">
+        <v>348</v>
+      </c>
+      <c r="H90" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>368</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
+        <v>188</v>
+      </c>
+      <c r="D91" t="s">
+        <v>189</v>
+      </c>
+      <c r="E91" t="s">
+        <v>53</v>
+      </c>
+      <c r="F91" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G91" t="s">
+        <v>348</v>
+      </c>
+      <c r="H91" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>368</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92" t="s">
+        <v>191</v>
+      </c>
+      <c r="E92" t="s">
+        <v>53</v>
+      </c>
+      <c r="F92" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G92" t="s">
+        <v>348</v>
+      </c>
+      <c r="H92" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>368</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" t="s">
+        <v>192</v>
+      </c>
+      <c r="D93" t="s">
+        <v>193</v>
+      </c>
+      <c r="E93" t="s">
+        <v>61</v>
+      </c>
+      <c r="F93" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G93" t="s">
+        <v>348</v>
+      </c>
+      <c r="H93" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>368</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" t="s">
+        <v>194</v>
+      </c>
+      <c r="D94" t="s">
+        <v>195</v>
+      </c>
+      <c r="E94" t="s">
+        <v>53</v>
+      </c>
+      <c r="F94" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G94" t="s">
+        <v>348</v>
+      </c>
+      <c r="H94" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>368</v>
+      </c>
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" t="s">
+        <v>196</v>
+      </c>
+      <c r="D95" t="s">
+        <v>197</v>
+      </c>
+      <c r="E95" t="s">
+        <v>53</v>
+      </c>
+      <c r="F95" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G95" t="s">
+        <v>348</v>
+      </c>
+      <c r="H95" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>368</v>
+      </c>
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" t="s">
+        <v>198</v>
+      </c>
+      <c r="D96" t="s">
+        <v>199</v>
+      </c>
+      <c r="E96" t="s">
+        <v>61</v>
+      </c>
+      <c r="F96" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G96" t="s">
+        <v>348</v>
+      </c>
+      <c r="H96" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>368</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" t="s">
+        <v>200</v>
+      </c>
+      <c r="D97" t="s">
+        <v>201</v>
+      </c>
+      <c r="E97" t="s">
+        <v>61</v>
+      </c>
+      <c r="F97" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G97" t="s">
+        <v>348</v>
+      </c>
+      <c r="H97" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>368</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" t="s">
+        <v>202</v>
+      </c>
+      <c r="D98" t="s">
+        <v>203</v>
+      </c>
+      <c r="E98" t="s">
+        <v>53</v>
+      </c>
+      <c r="F98" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G98" t="s">
+        <v>348</v>
+      </c>
+      <c r="H98" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>368</v>
+      </c>
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" t="s">
+        <v>204</v>
+      </c>
+      <c r="D99" t="s">
+        <v>205</v>
+      </c>
+      <c r="E99" t="s">
+        <v>53</v>
+      </c>
+      <c r="F99" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G99" t="s">
+        <v>348</v>
+      </c>
+      <c r="H99" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>368</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" t="s">
+        <v>206</v>
+      </c>
+      <c r="D100" t="s">
+        <v>207</v>
+      </c>
+      <c r="E100" t="s">
+        <v>53</v>
+      </c>
+      <c r="F100" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G100" t="s">
+        <v>348</v>
+      </c>
+      <c r="H100" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>368</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" t="s">
+        <v>208</v>
+      </c>
+      <c r="D101" t="s">
+        <v>209</v>
+      </c>
+      <c r="E101" t="s">
+        <v>36</v>
+      </c>
+      <c r="F101" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G101" t="s">
+        <v>348</v>
+      </c>
+      <c r="H101" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>368</v>
+      </c>
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" t="s">
+        <v>210</v>
+      </c>
+      <c r="D102" t="s">
+        <v>211</v>
+      </c>
+      <c r="E102" t="s">
+        <v>36</v>
+      </c>
+      <c r="F102" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G102" t="s">
+        <v>348</v>
+      </c>
+      <c r="H102" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>368</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
+        <v>212</v>
+      </c>
+      <c r="D103" t="s">
+        <v>213</v>
+      </c>
+      <c r="E103" t="s">
+        <v>53</v>
+      </c>
+      <c r="F103" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G103" t="s">
+        <v>348</v>
+      </c>
+      <c r="H103" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>368</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" t="s">
+        <v>214</v>
+      </c>
+      <c r="D104" t="s">
+        <v>215</v>
+      </c>
+      <c r="E104" t="s">
+        <v>53</v>
+      </c>
+      <c r="F104" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G104" t="s">
+        <v>348</v>
+      </c>
+      <c r="H104" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>368</v>
+      </c>
+      <c r="B105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" t="s">
+        <v>216</v>
+      </c>
+      <c r="D105" t="s">
+        <v>217</v>
+      </c>
+      <c r="E105" t="s">
+        <v>53</v>
+      </c>
+      <c r="F105" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G105" t="s">
+        <v>348</v>
+      </c>
+      <c r="H105" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>368</v>
+      </c>
+      <c r="B106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" t="s">
+        <v>218</v>
+      </c>
+      <c r="D106" t="s">
+        <v>219</v>
+      </c>
+      <c r="E106" t="s">
+        <v>53</v>
+      </c>
+      <c r="F106" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G106" t="s">
+        <v>348</v>
+      </c>
+      <c r="H106" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>368</v>
+      </c>
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" t="s">
+        <v>220</v>
+      </c>
+      <c r="D107" t="s">
+        <v>221</v>
+      </c>
+      <c r="E107" t="s">
+        <v>53</v>
+      </c>
+      <c r="F107" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G107" t="s">
+        <v>348</v>
+      </c>
+      <c r="H107" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>368</v>
+      </c>
+      <c r="B108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" t="s">
+        <v>222</v>
+      </c>
+      <c r="D108" t="s">
+        <v>223</v>
+      </c>
+      <c r="E108" t="s">
+        <v>53</v>
+      </c>
+      <c r="F108" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G108" t="s">
+        <v>348</v>
+      </c>
+      <c r="H108" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>368</v>
+      </c>
+      <c r="B109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" t="s">
+        <v>224</v>
+      </c>
+      <c r="D109" t="s">
+        <v>225</v>
+      </c>
+      <c r="E109" t="s">
+        <v>53</v>
+      </c>
+      <c r="F109" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G109" t="s">
+        <v>348</v>
+      </c>
+      <c r="H109" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>368</v>
+      </c>
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" t="s">
+        <v>226</v>
+      </c>
+      <c r="D110" t="s">
+        <v>227</v>
+      </c>
+      <c r="E110" t="s">
+        <v>53</v>
+      </c>
+      <c r="F110" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G110" t="s">
+        <v>348</v>
+      </c>
+      <c r="H110" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>368</v>
+      </c>
+      <c r="B111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" t="s">
+        <v>228</v>
+      </c>
+      <c r="D111" t="s">
+        <v>229</v>
+      </c>
+      <c r="E111" t="s">
+        <v>53</v>
+      </c>
+      <c r="F111" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G111" t="s">
+        <v>348</v>
+      </c>
+      <c r="H111" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>368</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" t="s">
+        <v>230</v>
+      </c>
+      <c r="D112" t="s">
+        <v>231</v>
+      </c>
+      <c r="E112" t="s">
+        <v>53</v>
+      </c>
+      <c r="F112" s="4">
+        <v>44885</v>
+      </c>
+      <c r="G112" t="s">
+        <v>348</v>
+      </c>
+      <c r="H112" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>371</v>
+      </c>
+      <c r="B113" t="s">
+        <v>372</v>
+      </c>
+      <c r="C113" t="s">
+        <v>233</v>
+      </c>
+      <c r="D113" t="s">
+        <v>295</v>
+      </c>
+      <c r="H113" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>371</v>
+      </c>
+      <c r="B114" t="s">
+        <v>372</v>
+      </c>
+      <c r="C114" t="s">
+        <v>234</v>
+      </c>
+      <c r="E114" t="s">
+        <v>296</v>
+      </c>
+      <c r="H114" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>371</v>
+      </c>
+      <c r="B115" t="s">
+        <v>372</v>
+      </c>
+      <c r="C115" t="s">
+        <v>235</v>
+      </c>
+      <c r="E115" t="s">
+        <v>297</v>
+      </c>
+      <c r="H115" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>371</v>
+      </c>
+      <c r="B116" t="s">
+        <v>372</v>
+      </c>
+      <c r="C116" t="s">
+        <v>236</v>
+      </c>
+      <c r="E116" t="s">
+        <v>298</v>
+      </c>
+      <c r="H116" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>371</v>
+      </c>
+      <c r="B117" t="s">
+        <v>372</v>
+      </c>
+      <c r="C117" t="s">
+        <v>237</v>
+      </c>
+      <c r="E117" t="s">
+        <v>299</v>
+      </c>
+      <c r="H117" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>371</v>
+      </c>
+      <c r="B118" t="s">
+        <v>372</v>
+      </c>
+      <c r="C118" t="s">
         <v>363</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F10" t="s">
-        <v>348</v>
-      </c>
-      <c r="G10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>363</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F11" t="s">
-        <v>348</v>
-      </c>
-      <c r="G11" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>363</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F12" t="s">
-        <v>348</v>
-      </c>
-      <c r="G12" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>363</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F13" t="s">
-        <v>348</v>
-      </c>
-      <c r="G13" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>363</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F14" t="s">
-        <v>348</v>
-      </c>
-      <c r="G14" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>363</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F15" t="s">
-        <v>348</v>
-      </c>
-      <c r="G15" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>363</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F16" t="s">
-        <v>348</v>
-      </c>
-      <c r="G16" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>363</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>361</v>
-      </c>
-      <c r="E17" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F17" t="s">
-        <v>348</v>
-      </c>
-      <c r="G17" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>363</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F18" t="s">
-        <v>348</v>
-      </c>
-      <c r="G18" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>363</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F19" t="s">
-        <v>348</v>
-      </c>
-      <c r="G19" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>363</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F20" t="s">
-        <v>348</v>
-      </c>
-      <c r="G20" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>363</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F21" t="s">
-        <v>348</v>
-      </c>
-      <c r="G21" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>363</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F22" t="s">
-        <v>348</v>
-      </c>
-      <c r="G22" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>363</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F23" t="s">
-        <v>348</v>
-      </c>
-      <c r="G23" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>363</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F24" t="s">
-        <v>348</v>
-      </c>
-      <c r="G24" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>363</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F25" t="s">
-        <v>348</v>
-      </c>
-      <c r="G25" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>363</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F26" t="s">
-        <v>348</v>
-      </c>
-      <c r="G26" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>363</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F27" t="s">
-        <v>348</v>
-      </c>
-      <c r="G27" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>363</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F28" t="s">
-        <v>348</v>
-      </c>
-      <c r="G28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>363</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F29" t="s">
-        <v>348</v>
-      </c>
-      <c r="G29" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>363</v>
-      </c>
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F30" t="s">
-        <v>348</v>
-      </c>
-      <c r="G30" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>363</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F31" t="s">
-        <v>348</v>
-      </c>
-      <c r="G31" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>363</v>
-      </c>
-      <c r="B32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F32" t="s">
-        <v>348</v>
-      </c>
-      <c r="G32" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>363</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F33" t="s">
-        <v>348</v>
-      </c>
-      <c r="G33" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>363</v>
-      </c>
-      <c r="B34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F34" t="s">
-        <v>348</v>
-      </c>
-      <c r="G34" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>363</v>
-      </c>
-      <c r="B35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F35" t="s">
-        <v>348</v>
-      </c>
-      <c r="G35" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>363</v>
-      </c>
-      <c r="B36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F36" t="s">
-        <v>348</v>
-      </c>
-      <c r="G36" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>363</v>
-      </c>
-      <c r="B37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F37" t="s">
-        <v>348</v>
-      </c>
-      <c r="G37" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>363</v>
-      </c>
-      <c r="B38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F38" t="s">
-        <v>348</v>
-      </c>
-      <c r="G38" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>363</v>
-      </c>
-      <c r="B39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F39" t="s">
-        <v>348</v>
-      </c>
-      <c r="G39" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>363</v>
-      </c>
-      <c r="B40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F40" t="s">
-        <v>348</v>
-      </c>
-      <c r="G40" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>363</v>
-      </c>
-      <c r="B41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E41" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F41" t="s">
-        <v>348</v>
-      </c>
-      <c r="G41" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>363</v>
-      </c>
-      <c r="B42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F42" t="s">
-        <v>348</v>
-      </c>
-      <c r="G42" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>363</v>
-      </c>
-      <c r="B43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" t="s">
-        <v>61</v>
-      </c>
-      <c r="E43" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F43" t="s">
-        <v>348</v>
-      </c>
-      <c r="G43" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>363</v>
-      </c>
-      <c r="B44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F44" t="s">
-        <v>348</v>
-      </c>
-      <c r="G44" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>363</v>
-      </c>
-      <c r="B45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F45" t="s">
-        <v>348</v>
-      </c>
-      <c r="G45" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>363</v>
-      </c>
-      <c r="B46" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F46" t="s">
-        <v>348</v>
-      </c>
-      <c r="G46" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>363</v>
-      </c>
-      <c r="B47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F47" t="s">
-        <v>348</v>
-      </c>
-      <c r="G47" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>363</v>
-      </c>
-      <c r="B48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F48" t="s">
-        <v>348</v>
-      </c>
-      <c r="G48" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>363</v>
-      </c>
-      <c r="B49" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F49" t="s">
-        <v>348</v>
-      </c>
-      <c r="G49" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>363</v>
-      </c>
-      <c r="B50" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" t="s">
-        <v>36</v>
-      </c>
-      <c r="E50" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F50" t="s">
-        <v>348</v>
-      </c>
-      <c r="G50" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>363</v>
-      </c>
-      <c r="B51" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F51" t="s">
-        <v>348</v>
-      </c>
-      <c r="G51" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>363</v>
-      </c>
-      <c r="B52" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F52" t="s">
-        <v>348</v>
-      </c>
-      <c r="G52" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>363</v>
-      </c>
-      <c r="B53" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" t="s">
-        <v>113</v>
-      </c>
-      <c r="D53" t="s">
-        <v>53</v>
-      </c>
-      <c r="E53" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F53" t="s">
-        <v>348</v>
-      </c>
-      <c r="G53" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>363</v>
-      </c>
-      <c r="B54" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" t="s">
-        <v>115</v>
-      </c>
-      <c r="D54" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F54" t="s">
-        <v>348</v>
-      </c>
-      <c r="G54" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>363</v>
-      </c>
-      <c r="B55" t="s">
-        <v>116</v>
-      </c>
-      <c r="C55" t="s">
-        <v>117</v>
-      </c>
-      <c r="D55" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F55" t="s">
-        <v>348</v>
-      </c>
-      <c r="G55" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>363</v>
-      </c>
-      <c r="B56" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" t="s">
-        <v>119</v>
-      </c>
-      <c r="D56" t="s">
-        <v>53</v>
-      </c>
-      <c r="E56" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F56" t="s">
-        <v>348</v>
-      </c>
-      <c r="G56" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>363</v>
-      </c>
-      <c r="B57" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" t="s">
-        <v>121</v>
-      </c>
-      <c r="D57" t="s">
-        <v>53</v>
-      </c>
-      <c r="E57" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F57" t="s">
-        <v>348</v>
-      </c>
-      <c r="G57" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>363</v>
-      </c>
-      <c r="B58" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" t="s">
-        <v>123</v>
-      </c>
-      <c r="D58" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F58" t="s">
-        <v>348</v>
-      </c>
-      <c r="G58" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>363</v>
-      </c>
-      <c r="B59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C59" t="s">
-        <v>125</v>
-      </c>
-      <c r="D59" t="s">
-        <v>53</v>
-      </c>
-      <c r="E59" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F59" t="s">
-        <v>348</v>
-      </c>
-      <c r="G59" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>363</v>
-      </c>
-      <c r="B60" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" t="s">
-        <v>127</v>
-      </c>
-      <c r="D60" t="s">
-        <v>53</v>
-      </c>
-      <c r="E60" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F60" t="s">
-        <v>348</v>
-      </c>
-      <c r="G60" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>363</v>
-      </c>
-      <c r="B61" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" t="s">
-        <v>129</v>
-      </c>
-      <c r="D61" t="s">
-        <v>53</v>
-      </c>
-      <c r="E61" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F61" t="s">
-        <v>348</v>
-      </c>
-      <c r="G61" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>363</v>
-      </c>
-      <c r="B62" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" t="s">
-        <v>53</v>
-      </c>
-      <c r="E62" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F62" t="s">
-        <v>348</v>
-      </c>
-      <c r="G62" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>363</v>
-      </c>
-      <c r="B63" t="s">
-        <v>132</v>
-      </c>
-      <c r="C63" t="s">
-        <v>133</v>
-      </c>
-      <c r="D63" t="s">
-        <v>53</v>
-      </c>
-      <c r="E63" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F63" t="s">
-        <v>348</v>
-      </c>
-      <c r="G63" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>363</v>
-      </c>
-      <c r="B64" t="s">
-        <v>134</v>
-      </c>
-      <c r="C64" t="s">
-        <v>135</v>
-      </c>
-      <c r="D64" t="s">
-        <v>36</v>
-      </c>
-      <c r="E64" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F64" t="s">
-        <v>348</v>
-      </c>
-      <c r="G64" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>363</v>
-      </c>
-      <c r="B65" t="s">
-        <v>136</v>
-      </c>
-      <c r="C65" t="s">
-        <v>137</v>
-      </c>
-      <c r="D65" t="s">
-        <v>53</v>
-      </c>
-      <c r="E65" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F65" t="s">
-        <v>348</v>
-      </c>
-      <c r="G65" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>363</v>
-      </c>
-      <c r="B66" t="s">
-        <v>138</v>
-      </c>
-      <c r="C66" t="s">
-        <v>139</v>
-      </c>
-      <c r="D66" t="s">
-        <v>53</v>
-      </c>
-      <c r="E66" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F66" t="s">
-        <v>348</v>
-      </c>
-      <c r="G66" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>363</v>
-      </c>
-      <c r="B67" t="s">
-        <v>140</v>
-      </c>
-      <c r="C67" t="s">
-        <v>141</v>
-      </c>
-      <c r="D67" t="s">
-        <v>36</v>
-      </c>
-      <c r="E67" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F67" t="s">
-        <v>348</v>
-      </c>
-      <c r="G67" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>363</v>
-      </c>
-      <c r="B68" t="s">
-        <v>142</v>
-      </c>
-      <c r="C68" t="s">
-        <v>143</v>
-      </c>
-      <c r="D68" t="s">
-        <v>53</v>
-      </c>
-      <c r="E68" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F68" t="s">
-        <v>348</v>
-      </c>
-      <c r="G68" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>363</v>
-      </c>
-      <c r="B69" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" t="s">
-        <v>145</v>
-      </c>
-      <c r="D69" t="s">
-        <v>61</v>
-      </c>
-      <c r="E69" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F69" t="s">
-        <v>348</v>
-      </c>
-      <c r="G69" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>363</v>
-      </c>
-      <c r="B70" t="s">
-        <v>146</v>
-      </c>
-      <c r="C70" t="s">
-        <v>147</v>
-      </c>
-      <c r="D70" t="s">
-        <v>53</v>
-      </c>
-      <c r="E70" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F70" t="s">
-        <v>348</v>
-      </c>
-      <c r="G70" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>363</v>
-      </c>
-      <c r="B71" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71" t="s">
-        <v>149</v>
-      </c>
-      <c r="D71" t="s">
-        <v>53</v>
-      </c>
-      <c r="E71" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F71" t="s">
-        <v>348</v>
-      </c>
-      <c r="G71" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>363</v>
-      </c>
-      <c r="B72" t="s">
-        <v>150</v>
-      </c>
-      <c r="C72" t="s">
-        <v>151</v>
-      </c>
-      <c r="D72" t="s">
-        <v>64</v>
-      </c>
-      <c r="E72" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F72" t="s">
-        <v>348</v>
-      </c>
-      <c r="G72" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>363</v>
-      </c>
-      <c r="B73" t="s">
-        <v>152</v>
-      </c>
-      <c r="C73" t="s">
-        <v>153</v>
-      </c>
-      <c r="D73" t="s">
-        <v>64</v>
-      </c>
-      <c r="E73" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F73" t="s">
-        <v>348</v>
-      </c>
-      <c r="G73" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>363</v>
-      </c>
-      <c r="B74" t="s">
-        <v>154</v>
-      </c>
-      <c r="C74" t="s">
-        <v>155</v>
-      </c>
-      <c r="D74" t="s">
-        <v>53</v>
-      </c>
-      <c r="E74" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F74" t="s">
-        <v>348</v>
-      </c>
-      <c r="G74" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>363</v>
-      </c>
-      <c r="B75" t="s">
-        <v>156</v>
-      </c>
-      <c r="C75" t="s">
-        <v>157</v>
-      </c>
-      <c r="D75" t="s">
-        <v>53</v>
-      </c>
-      <c r="E75" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F75" t="s">
-        <v>348</v>
-      </c>
-      <c r="G75" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>363</v>
-      </c>
-      <c r="B76" t="s">
-        <v>158</v>
-      </c>
-      <c r="C76" t="s">
-        <v>159</v>
-      </c>
-      <c r="D76" t="s">
-        <v>53</v>
-      </c>
-      <c r="E76" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F76" t="s">
-        <v>348</v>
-      </c>
-      <c r="G76" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>363</v>
-      </c>
-      <c r="B77" t="s">
-        <v>160</v>
-      </c>
-      <c r="C77" t="s">
-        <v>161</v>
-      </c>
-      <c r="D77" t="s">
-        <v>53</v>
-      </c>
-      <c r="E77" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F77" t="s">
-        <v>348</v>
-      </c>
-      <c r="G77" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>363</v>
-      </c>
-      <c r="B78" t="s">
-        <v>162</v>
-      </c>
-      <c r="C78" t="s">
-        <v>163</v>
-      </c>
-      <c r="D78" t="s">
-        <v>53</v>
-      </c>
-      <c r="E78" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F78" t="s">
-        <v>348</v>
-      </c>
-      <c r="G78" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>363</v>
-      </c>
-      <c r="B79" t="s">
-        <v>164</v>
-      </c>
-      <c r="C79" t="s">
-        <v>165</v>
-      </c>
-      <c r="D79" t="s">
-        <v>53</v>
-      </c>
-      <c r="E79" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F79" t="s">
-        <v>348</v>
-      </c>
-      <c r="G79" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>363</v>
-      </c>
-      <c r="B80" t="s">
-        <v>166</v>
-      </c>
-      <c r="C80" t="s">
-        <v>167</v>
-      </c>
-      <c r="D80" t="s">
-        <v>36</v>
-      </c>
-      <c r="E80" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F80" t="s">
-        <v>348</v>
-      </c>
-      <c r="G80" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>363</v>
-      </c>
-      <c r="B81" t="s">
-        <v>168</v>
-      </c>
-      <c r="C81" t="s">
-        <v>169</v>
-      </c>
-      <c r="D81" t="s">
-        <v>61</v>
-      </c>
-      <c r="E81" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F81" t="s">
-        <v>348</v>
-      </c>
-      <c r="G81" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>363</v>
-      </c>
-      <c r="B82" t="s">
-        <v>170</v>
-      </c>
-      <c r="C82" t="s">
-        <v>171</v>
-      </c>
-      <c r="D82" t="s">
-        <v>53</v>
-      </c>
-      <c r="E82" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F82" t="s">
-        <v>348</v>
-      </c>
-      <c r="G82" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>363</v>
-      </c>
-      <c r="B83" t="s">
-        <v>172</v>
-      </c>
-      <c r="C83" t="s">
-        <v>173</v>
-      </c>
-      <c r="D83" t="s">
-        <v>53</v>
-      </c>
-      <c r="E83" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F83" t="s">
-        <v>348</v>
-      </c>
-      <c r="G83" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>363</v>
-      </c>
-      <c r="B84" t="s">
-        <v>174</v>
-      </c>
-      <c r="C84" t="s">
-        <v>175</v>
-      </c>
-      <c r="D84" t="s">
-        <v>53</v>
-      </c>
-      <c r="E84" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F84" t="s">
-        <v>348</v>
-      </c>
-      <c r="G84" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>363</v>
-      </c>
-      <c r="B85" t="s">
-        <v>176</v>
-      </c>
-      <c r="C85" t="s">
-        <v>177</v>
-      </c>
-      <c r="D85" t="s">
-        <v>53</v>
-      </c>
-      <c r="E85" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F85" t="s">
-        <v>348</v>
-      </c>
-      <c r="G85" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>363</v>
-      </c>
-      <c r="B86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C86" t="s">
-        <v>179</v>
-      </c>
-      <c r="D86" t="s">
-        <v>53</v>
-      </c>
-      <c r="E86" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F86" t="s">
-        <v>348</v>
-      </c>
-      <c r="G86" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>363</v>
-      </c>
-      <c r="B87" t="s">
-        <v>180</v>
-      </c>
-      <c r="C87" t="s">
-        <v>181</v>
-      </c>
-      <c r="D87" t="s">
-        <v>53</v>
-      </c>
-      <c r="E87" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F87" t="s">
-        <v>348</v>
-      </c>
-      <c r="G87" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>363</v>
-      </c>
-      <c r="B88" t="s">
-        <v>182</v>
-      </c>
-      <c r="C88" t="s">
-        <v>183</v>
-      </c>
-      <c r="D88" t="s">
-        <v>53</v>
-      </c>
-      <c r="E88" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F88" t="s">
-        <v>348</v>
-      </c>
-      <c r="G88" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>363</v>
-      </c>
-      <c r="B89" t="s">
-        <v>184</v>
-      </c>
-      <c r="C89" t="s">
-        <v>185</v>
-      </c>
-      <c r="D89" t="s">
-        <v>53</v>
-      </c>
-      <c r="E89" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F89" t="s">
-        <v>348</v>
-      </c>
-      <c r="G89" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>363</v>
-      </c>
-      <c r="B90" t="s">
-        <v>186</v>
-      </c>
-      <c r="C90" t="s">
-        <v>187</v>
-      </c>
-      <c r="D90" t="s">
-        <v>53</v>
-      </c>
-      <c r="E90" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F90" t="s">
-        <v>348</v>
-      </c>
-      <c r="G90" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>363</v>
-      </c>
-      <c r="B91" t="s">
-        <v>188</v>
-      </c>
-      <c r="C91" t="s">
-        <v>189</v>
-      </c>
-      <c r="D91" t="s">
-        <v>53</v>
-      </c>
-      <c r="E91" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F91" t="s">
-        <v>348</v>
-      </c>
-      <c r="G91" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>363</v>
-      </c>
-      <c r="B92" t="s">
-        <v>190</v>
-      </c>
-      <c r="C92" t="s">
-        <v>191</v>
-      </c>
-      <c r="D92" t="s">
-        <v>53</v>
-      </c>
-      <c r="E92" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F92" t="s">
-        <v>348</v>
-      </c>
-      <c r="G92" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>363</v>
-      </c>
-      <c r="B93" t="s">
-        <v>192</v>
-      </c>
-      <c r="C93" t="s">
-        <v>193</v>
-      </c>
-      <c r="D93" t="s">
-        <v>61</v>
-      </c>
-      <c r="E93" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F93" t="s">
-        <v>348</v>
-      </c>
-      <c r="G93" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>363</v>
-      </c>
-      <c r="B94" t="s">
-        <v>194</v>
-      </c>
-      <c r="C94" t="s">
-        <v>195</v>
-      </c>
-      <c r="D94" t="s">
-        <v>53</v>
-      </c>
-      <c r="E94" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F94" t="s">
-        <v>348</v>
-      </c>
-      <c r="G94" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>363</v>
-      </c>
-      <c r="B95" t="s">
-        <v>196</v>
-      </c>
-      <c r="C95" t="s">
-        <v>197</v>
-      </c>
-      <c r="D95" t="s">
-        <v>53</v>
-      </c>
-      <c r="E95" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F95" t="s">
-        <v>348</v>
-      </c>
-      <c r="G95" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>363</v>
-      </c>
-      <c r="B96" t="s">
-        <v>198</v>
-      </c>
-      <c r="C96" t="s">
-        <v>199</v>
-      </c>
-      <c r="D96" t="s">
-        <v>61</v>
-      </c>
-      <c r="E96" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F96" t="s">
-        <v>348</v>
-      </c>
-      <c r="G96" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>363</v>
-      </c>
-      <c r="B97" t="s">
-        <v>200</v>
-      </c>
-      <c r="C97" t="s">
-        <v>201</v>
-      </c>
-      <c r="D97" t="s">
-        <v>61</v>
-      </c>
-      <c r="E97" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F97" t="s">
-        <v>348</v>
-      </c>
-      <c r="G97" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>363</v>
-      </c>
-      <c r="B98" t="s">
-        <v>202</v>
-      </c>
-      <c r="C98" t="s">
-        <v>203</v>
-      </c>
-      <c r="D98" t="s">
-        <v>53</v>
-      </c>
-      <c r="E98" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F98" t="s">
-        <v>348</v>
-      </c>
-      <c r="G98" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>363</v>
-      </c>
-      <c r="B99" t="s">
-        <v>204</v>
-      </c>
-      <c r="C99" t="s">
-        <v>205</v>
-      </c>
-      <c r="D99" t="s">
-        <v>53</v>
-      </c>
-      <c r="E99" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F99" t="s">
-        <v>348</v>
-      </c>
-      <c r="G99" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>363</v>
-      </c>
-      <c r="B100" t="s">
-        <v>206</v>
-      </c>
-      <c r="C100" t="s">
-        <v>207</v>
-      </c>
-      <c r="D100" t="s">
-        <v>53</v>
-      </c>
-      <c r="E100" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F100" t="s">
-        <v>348</v>
-      </c>
-      <c r="G100" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>363</v>
-      </c>
-      <c r="B101" t="s">
-        <v>208</v>
-      </c>
-      <c r="C101" t="s">
-        <v>209</v>
-      </c>
-      <c r="D101" t="s">
-        <v>36</v>
-      </c>
-      <c r="E101" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F101" t="s">
-        <v>348</v>
-      </c>
-      <c r="G101" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>363</v>
-      </c>
-      <c r="B102" t="s">
-        <v>210</v>
-      </c>
-      <c r="C102" t="s">
-        <v>211</v>
-      </c>
-      <c r="D102" t="s">
-        <v>36</v>
-      </c>
-      <c r="E102" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F102" t="s">
-        <v>348</v>
-      </c>
-      <c r="G102" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>363</v>
-      </c>
-      <c r="B103" t="s">
-        <v>212</v>
-      </c>
-      <c r="C103" t="s">
-        <v>213</v>
-      </c>
-      <c r="D103" t="s">
-        <v>53</v>
-      </c>
-      <c r="E103" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F103" t="s">
-        <v>348</v>
-      </c>
-      <c r="G103" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>363</v>
-      </c>
-      <c r="B104" t="s">
-        <v>214</v>
-      </c>
-      <c r="C104" t="s">
-        <v>215</v>
-      </c>
-      <c r="D104" t="s">
-        <v>53</v>
-      </c>
-      <c r="E104" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F104" t="s">
-        <v>348</v>
-      </c>
-      <c r="G104" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>363</v>
-      </c>
-      <c r="B105" t="s">
-        <v>216</v>
-      </c>
-      <c r="C105" t="s">
-        <v>217</v>
-      </c>
-      <c r="D105" t="s">
-        <v>53</v>
-      </c>
-      <c r="E105" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F105" t="s">
-        <v>348</v>
-      </c>
-      <c r="G105" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>363</v>
-      </c>
-      <c r="B106" t="s">
-        <v>218</v>
-      </c>
-      <c r="C106" t="s">
-        <v>219</v>
-      </c>
-      <c r="D106" t="s">
-        <v>53</v>
-      </c>
-      <c r="E106" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F106" t="s">
-        <v>348</v>
-      </c>
-      <c r="G106" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>363</v>
-      </c>
-      <c r="B107" t="s">
-        <v>220</v>
-      </c>
-      <c r="C107" t="s">
-        <v>221</v>
-      </c>
-      <c r="D107" t="s">
-        <v>53</v>
-      </c>
-      <c r="E107" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F107" t="s">
-        <v>348</v>
-      </c>
-      <c r="G107" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>363</v>
-      </c>
-      <c r="B108" t="s">
-        <v>222</v>
-      </c>
-      <c r="C108" t="s">
-        <v>223</v>
-      </c>
-      <c r="D108" t="s">
-        <v>53</v>
-      </c>
-      <c r="E108" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F108" t="s">
-        <v>348</v>
-      </c>
-      <c r="G108" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>363</v>
-      </c>
-      <c r="B109" t="s">
-        <v>224</v>
-      </c>
-      <c r="C109" t="s">
-        <v>225</v>
-      </c>
-      <c r="D109" t="s">
-        <v>53</v>
-      </c>
-      <c r="E109" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F109" t="s">
-        <v>348</v>
-      </c>
-      <c r="G109" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>363</v>
-      </c>
-      <c r="B110" t="s">
-        <v>226</v>
-      </c>
-      <c r="C110" t="s">
-        <v>227</v>
-      </c>
-      <c r="D110" t="s">
-        <v>53</v>
-      </c>
-      <c r="E110" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F110" t="s">
-        <v>348</v>
-      </c>
-      <c r="G110" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>363</v>
-      </c>
-      <c r="B111" t="s">
-        <v>228</v>
-      </c>
-      <c r="C111" t="s">
-        <v>229</v>
-      </c>
-      <c r="D111" t="s">
-        <v>53</v>
-      </c>
-      <c r="E111" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F111" t="s">
-        <v>348</v>
-      </c>
-      <c r="G111" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>363</v>
-      </c>
-      <c r="B112" t="s">
-        <v>230</v>
-      </c>
-      <c r="C112" t="s">
-        <v>231</v>
-      </c>
-      <c r="D112" t="s">
-        <v>53</v>
-      </c>
-      <c r="E112" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F112" t="s">
-        <v>348</v>
-      </c>
-      <c r="G112" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="E118" t="s">
+        <v>300</v>
+      </c>
+      <c r="H118" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>371</v>
+      </c>
+      <c r="B119" t="s">
+        <v>372</v>
+      </c>
+      <c r="C119" t="s">
         <v>364</v>
       </c>
-      <c r="B113" t="s">
-        <v>233</v>
-      </c>
-      <c r="C113" t="s">
-        <v>295</v>
-      </c>
-      <c r="G113" t="s">
+      <c r="E119" t="s">
+        <v>301</v>
+      </c>
+      <c r="H119" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>364</v>
-      </c>
-      <c r="B114" t="s">
-        <v>234</v>
-      </c>
-      <c r="D114" t="s">
-        <v>296</v>
-      </c>
-      <c r="G114" t="s">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>371</v>
+      </c>
+      <c r="B120" t="s">
+        <v>372</v>
+      </c>
+      <c r="C120" t="s">
+        <v>365</v>
+      </c>
+      <c r="E120" t="s">
+        <v>302</v>
+      </c>
+      <c r="H120" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>364</v>
-      </c>
-      <c r="B115" t="s">
-        <v>235</v>
-      </c>
-      <c r="D115" t="s">
-        <v>297</v>
-      </c>
-      <c r="G115" t="s">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>371</v>
+      </c>
+      <c r="B121" t="s">
+        <v>372</v>
+      </c>
+      <c r="C121" t="s">
+        <v>366</v>
+      </c>
+      <c r="E121" t="s">
+        <v>303</v>
+      </c>
+      <c r="H121" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>364</v>
-      </c>
-      <c r="B116" t="s">
-        <v>236</v>
-      </c>
-      <c r="D116" t="s">
-        <v>298</v>
-      </c>
-      <c r="G116" t="s">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>371</v>
+      </c>
+      <c r="B122" t="s">
+        <v>372</v>
+      </c>
+      <c r="C122" t="s">
+        <v>367</v>
+      </c>
+      <c r="E122" t="s">
+        <v>304</v>
+      </c>
+      <c r="H122" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>364</v>
-      </c>
-      <c r="B117" t="s">
-        <v>237</v>
-      </c>
-      <c r="D117" t="s">
-        <v>299</v>
-      </c>
-      <c r="G117" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>364</v>
-      </c>
-      <c r="B118" t="s">
-        <v>365</v>
-      </c>
-      <c r="D118" t="s">
-        <v>300</v>
-      </c>
-      <c r="G118" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>364</v>
-      </c>
-      <c r="B119" t="s">
-        <v>366</v>
-      </c>
-      <c r="D119" t="s">
-        <v>301</v>
-      </c>
-      <c r="G119" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>364</v>
-      </c>
-      <c r="B120" t="s">
-        <v>367</v>
-      </c>
-      <c r="D120" t="s">
-        <v>302</v>
-      </c>
-      <c r="G120" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>364</v>
-      </c>
-      <c r="B121" t="s">
-        <v>368</v>
-      </c>
-      <c r="D121" t="s">
-        <v>303</v>
-      </c>
-      <c r="G121" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>364</v>
-      </c>
-      <c r="B122" t="s">
-        <v>369</v>
-      </c>
-      <c r="D122" t="s">
-        <v>304</v>
-      </c>
-      <c r="G122" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="B123" t="s">
+        <v>373</v>
+      </c>
+      <c r="C123" t="s">
         <v>244</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>305</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="B124" t="s">
+        <v>373</v>
+      </c>
+      <c r="C124" t="s">
         <v>245</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>306</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H124" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="B125" t="s">
+        <v>373</v>
+      </c>
+      <c r="C125" t="s">
         <v>246</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>307</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>374</v>
       </c>
       <c r="B126" t="s">
+        <v>247</v>
+      </c>
+      <c r="C126" t="s">
         <v>248</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>308</v>
       </c>
-      <c r="G126" t="s">
+      <c r="H126" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>374</v>
       </c>
       <c r="B127" t="s">
+        <v>375</v>
+      </c>
+      <c r="C127" t="s">
         <v>250</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>309</v>
       </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>374</v>
       </c>
       <c r="B128" t="s">
+        <v>251</v>
+      </c>
+      <c r="C128" t="s">
         <v>252</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>310</v>
       </c>
-      <c r="G128" t="s">
+      <c r="H128" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>374</v>
       </c>
       <c r="B129" t="s">
+        <v>251</v>
+      </c>
+      <c r="C129" t="s">
         <v>253</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>311</v>
       </c>
-      <c r="G129" t="s">
+      <c r="H129" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B130" t="s">
+        <v>377</v>
+      </c>
+      <c r="C130" t="s">
         <v>255</v>
       </c>
-      <c r="G130" t="s">
+      <c r="H130" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B131" t="s">
+        <v>377</v>
+      </c>
+      <c r="C131" t="s">
         <v>256</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>313</v>
       </c>
-      <c r="G131" t="s">
+      <c r="H131" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B132" t="s">
+        <v>377</v>
+      </c>
+      <c r="C132" t="s">
         <v>257</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>314</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H132" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B133" t="s">
+        <v>377</v>
+      </c>
+      <c r="C133" t="s">
         <v>258</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>315</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H133" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B134" t="s">
+        <v>377</v>
+      </c>
+      <c r="C134" t="s">
         <v>259</v>
       </c>
-      <c r="G134" t="s">
+      <c r="H134" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B135" t="s">
+        <v>377</v>
+      </c>
+      <c r="C135" t="s">
         <v>260</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>317</v>
       </c>
-      <c r="G135" t="s">
+      <c r="H135" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B136" t="s">
+        <v>377</v>
+      </c>
+      <c r="C136" t="s">
         <v>261</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>318</v>
       </c>
-      <c r="G136" t="s">
+      <c r="H136" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="B137" t="s">
+        <v>262</v>
+      </c>
+      <c r="C137" t="s">
         <v>263</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>319</v>
       </c>
-      <c r="G137" t="s">
+      <c r="H137" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="B138" t="s">
+        <v>262</v>
+      </c>
+      <c r="C138" t="s">
         <v>264</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>320</v>
       </c>
-      <c r="G138" t="s">
+      <c r="H138" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="B139" t="s">
+        <v>262</v>
+      </c>
+      <c r="C139" t="s">
         <v>265</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>321</v>
       </c>
-      <c r="G139" t="s">
+      <c r="H139" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="B140" t="s">
+        <v>262</v>
+      </c>
+      <c r="C140" t="s">
         <v>266</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>322</v>
       </c>
-      <c r="G140" t="s">
+      <c r="H140" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="B141" t="s">
+        <v>262</v>
+      </c>
+      <c r="C141" t="s">
         <v>267</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>323</v>
       </c>
-      <c r="G141" t="s">
+      <c r="H141" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="B142" t="s">
+        <v>262</v>
+      </c>
+      <c r="C142" t="s">
         <v>268</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>324</v>
       </c>
-      <c r="G142" t="s">
+      <c r="H142" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="B143" t="s">
+        <v>262</v>
+      </c>
+      <c r="C143" t="s">
         <v>269</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>325</v>
       </c>
-      <c r="G143" t="s">
+      <c r="H143" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="B144" t="s">
+        <v>262</v>
+      </c>
+      <c r="C144" t="s">
         <v>270</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>326</v>
       </c>
-      <c r="G144" t="s">
+      <c r="H144" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="B145" t="s">
+        <v>262</v>
+      </c>
+      <c r="C145" t="s">
         <v>271</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>327</v>
       </c>
-      <c r="G145" t="s">
+      <c r="H145" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="B146" t="s">
+        <v>262</v>
+      </c>
+      <c r="C146" t="s">
         <v>272</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>328</v>
       </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B147" t="s">
+        <v>273</v>
+      </c>
+      <c r="C147" t="s">
         <v>274</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>329</v>
       </c>
-      <c r="G147" t="s">
+      <c r="H147" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B148" t="s">
+        <v>273</v>
+      </c>
+      <c r="C148" t="s">
         <v>275</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>330</v>
       </c>
-      <c r="G148" t="s">
+      <c r="H148" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B149" t="s">
+        <v>273</v>
+      </c>
+      <c r="C149" t="s">
         <v>276</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>331</v>
       </c>
-      <c r="G149" t="s">
+      <c r="H149" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B150" t="s">
+        <v>273</v>
+      </c>
+      <c r="C150" t="s">
         <v>277</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>332</v>
       </c>
-      <c r="G150" t="s">
+      <c r="H150" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B151" t="s">
+        <v>273</v>
+      </c>
+      <c r="C151" t="s">
         <v>278</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>333</v>
       </c>
-      <c r="G151" t="s">
+      <c r="H151" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B152" t="s">
+        <v>279</v>
+      </c>
+      <c r="C152" t="s">
         <v>280</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>334</v>
       </c>
-      <c r="G152" t="s">
+      <c r="H152" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B153" t="s">
+        <v>279</v>
+      </c>
+      <c r="C153" t="s">
         <v>281</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>335</v>
       </c>
-      <c r="G153" t="s">
+      <c r="H153" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B154" t="s">
+        <v>279</v>
+      </c>
+      <c r="C154" t="s">
         <v>282</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>336</v>
       </c>
-      <c r="G154" t="s">
+      <c r="H154" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B155" t="s">
+        <v>381</v>
+      </c>
+      <c r="C155" t="s">
         <v>284</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>337</v>
       </c>
-      <c r="G155" s="4">
-        <v>44885</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H155" s="4">
+        <v>44885</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B156" t="s">
+        <v>381</v>
+      </c>
+      <c r="C156" t="s">
         <v>285</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>338</v>
       </c>
-      <c r="G156" s="4">
-        <v>44885</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H156" s="4">
+        <v>44885</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B157" t="s">
+        <v>381</v>
+      </c>
+      <c r="C157" t="s">
         <v>286</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>339</v>
       </c>
-      <c r="G157" s="4">
-        <v>44885</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H157" s="4">
+        <v>44885</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B158" t="s">
+        <v>381</v>
+      </c>
+      <c r="C158" t="s">
         <v>287</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>340</v>
       </c>
-      <c r="G158" s="4">
-        <v>44885</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H158" s="4">
+        <v>44885</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B159" t="s">
+        <v>381</v>
+      </c>
+      <c r="C159" t="s">
         <v>288</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>341</v>
       </c>
-      <c r="G159" s="4">
-        <v>44885</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H159" s="4">
+        <v>44885</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B160" t="s">
+        <v>381</v>
+      </c>
+      <c r="C160" t="s">
         <v>289</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>342</v>
       </c>
-      <c r="G160" s="4">
-        <v>44885</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H160" s="4">
+        <v>44885</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B161" t="s">
+        <v>381</v>
+      </c>
+      <c r="C161" t="s">
         <v>290</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>343</v>
       </c>
-      <c r="G161" s="4">
-        <v>44885</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H161" s="4">
+        <v>44885</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B162" t="s">
+        <v>381</v>
+      </c>
+      <c r="C162" t="s">
         <v>291</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>344</v>
       </c>
-      <c r="G162" s="4">
-        <v>44885</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H162" s="4">
+        <v>44885</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B163" t="s">
+        <v>381</v>
+      </c>
+      <c r="C163" t="s">
         <v>292</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>345</v>
       </c>
-      <c r="G163" s="4">
-        <v>44885</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H163" s="4">
+        <v>44885</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B164" t="s">
+        <v>381</v>
+      </c>
+      <c r="C164" t="s">
         <v>293</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>346</v>
       </c>
-      <c r="G164" s="4">
-        <v>44885</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H164" s="4">
+        <v>44885</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B165" t="s">
+        <v>381</v>
+      </c>
+      <c r="C165" t="s">
         <v>294</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>347</v>
       </c>
-      <c r="G165" s="4">
+      <c r="H165" s="4">
         <v>44885</v>
       </c>
     </row>
@@ -4921,8 +5412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674E778E-6EE7-48DC-9458-6E54369E644F}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
